--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>part Number</t>
   </si>
@@ -47,7 +46,7 @@
     <t>AZ39069</t>
   </si>
   <si>
-    <t>C-channel </t>
+    <t>C-channel</t>
   </si>
   <si>
     <t>416mm</t>
@@ -119,7 +118,7 @@
     <t>AZ39088</t>
   </si>
   <si>
-    <t>Axle  </t>
+    <t>Axle</t>
   </si>
   <si>
     <t>100mm</t>
@@ -215,10 +214,10 @@
     <t>66 yards</t>
   </si>
   <si>
-    <t>87635k63 </t>
-  </si>
-  <si>
-    <t>polyester thread </t>
+    <t>87635k63</t>
+  </si>
+  <si>
+    <t>polyester thread</t>
   </si>
   <si>
     <t>120 yards</t>
@@ -237,36 +236,29 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Core_motor Controller</t>
+  </si>
+  <si>
+    <t>Core_Power_Distribution_Module</t>
+  </si>
+  <si>
+    <t>Core_Servo_Controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,7 +270,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -286,706 +278,970 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1"/>
+    <col min="11" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1">
         <v>17.95</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">F2*H2</f>
+      <c r="J2" s="1">
+        <f>G2*I2</f>
         <v>71.8</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">416/25</f>
+      <c r="L2">
+        <f>416/25</f>
         <v>16.64</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2">
         <v>416</v>
       </c>
-      <c r="M2" s="0" t="n">
-        <f aca="false">L2/25</f>
+      <c r="N2">
+        <f>M2/25</f>
         <v>16.64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="G4" s="1">
         <v>4.95</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">F4*H4</f>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J25" si="0">G4*I4</f>
         <v>19.8</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4">
         <v>288</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <f aca="false">L4/25</f>
+      <c r="N4">
+        <f>M4/25</f>
         <v>11.52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>9.95</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false">F5*H5</f>
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>9.95</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false">F6*H6</f>
-        <v>9.95</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
         <v>2.95</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <f aca="false">F7*H7</f>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>8.95</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <f aca="false">F8*H8</f>
-        <v>8.95</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
         <v>24.95</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <f aca="false">F9*H9</f>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
         <v>6.95</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <f aca="false">F10*H10</f>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
         <v>27.8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
         <v>15.95</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">F11*H11</f>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
         <v>15.95</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <f aca="false">F12*H12</f>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
         <v>31.9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
         <v>5.95</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <f aca="false">F13*H13</f>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
         <v>13.95</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <f aca="false">F14*H14</f>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
         <v>13.95</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
         <v>49.95</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <f aca="false">F15*H15</f>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.95</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">F16*H16</f>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
         <v>14.25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1">
         <v>16.95</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <f aca="false">F17*H17</f>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
         <v>16.95</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:10">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false">F18*H18</f>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:10">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <f aca="false">F19*H19</f>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
         <v>19.95</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <f aca="false">F20*H20</f>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1">
         <v>15.95</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>6</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <f aca="false">F21*H21</f>
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>95.699999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
         <v>1.95</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <f aca="false">F22*H22</f>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23">
         <v>346</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="G23" s="1">
         <v>27.17</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <f aca="false">F23*H23</f>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
         <v>27.17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="D24">
         <v>693</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="G24" s="1">
         <v>12.77</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <f aca="false">F24*H24</f>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
         <v>12.77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="G25" s="1">
         <v>1.52</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <f aca="false">F25*H25</f>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
         <v>6.08</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="28" spans="2:10">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <f aca="false">SUM(I2:I22)</f>
+      <c r="J38" s="1">
+        <f>SUM(J2:J22)</f>
         <v>644</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -4,17 +4,88 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="978"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="order" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike McMillan</author>
+  </authors>
+  <commentList>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mike McMillan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAY NOT NEED FOR NEW ELECTIONICS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike McMillan</author>
+  </authors>
+  <commentList>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mike McMillan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAY NOT NEED FOR NEW ELECTIONICS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="227">
   <si>
     <t>part Number</t>
   </si>
@@ -235,9 +306,6 @@
     <t>MCMaster carr</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Core_motor Controller</t>
   </si>
   <si>
@@ -245,6 +313,459 @@
   </si>
   <si>
     <t>Core_Servo_Controller</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>TETRIX_731901_120_2013</t>
+  </si>
+  <si>
+    <t>120-Tooth Gear</t>
+  </si>
+  <si>
+    <t>TETRIX_731903_2012</t>
+  </si>
+  <si>
+    <t>Motor Power Wire</t>
+  </si>
+  <si>
+    <t>TETRIX_736466_2012</t>
+  </si>
+  <si>
+    <t>4” Dual Omni Wheel Assembly</t>
+  </si>
+  <si>
+    <t>TETRIX_738000_2012</t>
+  </si>
+  <si>
+    <t>Motor Encoder</t>
+  </si>
+  <si>
+    <t>TETRIX_738009_BATPACK_BRKT_2013</t>
+  </si>
+  <si>
+    <t>Battery Clip</t>
+  </si>
+  <si>
+    <t>TETRIX_739028_2012</t>
+  </si>
+  <si>
+    <t>40-Tooth Gear</t>
+  </si>
+  <si>
+    <t>TETRIX_739055_2012</t>
+  </si>
+  <si>
+    <t>4" Wheel</t>
+  </si>
+  <si>
+    <t>TETRIX_739057_2012</t>
+  </si>
+  <si>
+    <t>Battery Pack</t>
+  </si>
+  <si>
+    <t>TETRIX_739060_2012</t>
+  </si>
+  <si>
+    <t>Single Standard Scale Servo Bracket</t>
+  </si>
+  <si>
+    <t>TETRIX_739061_2012</t>
+  </si>
+  <si>
+    <t>Flat Bracket</t>
+  </si>
+  <si>
+    <t>TETRIX_739062_2012</t>
+  </si>
+  <si>
+    <t>L Bracket</t>
+  </si>
+  <si>
+    <t>TETRIX_739065_2012</t>
+  </si>
+  <si>
+    <t>32mm Channel</t>
+  </si>
+  <si>
+    <t>TETRIX_739066_2012</t>
+  </si>
+  <si>
+    <t>96mm Channel</t>
+  </si>
+  <si>
+    <t>TETRIX_739067_2012</t>
+  </si>
+  <si>
+    <t>160m Channel</t>
+  </si>
+  <si>
+    <t>TETRIX_739068_2012</t>
+  </si>
+  <si>
+    <t>288mm Channel</t>
+  </si>
+  <si>
+    <t>TETRIX_739069_2012</t>
+  </si>
+  <si>
+    <t>416mm Channel</t>
+  </si>
+  <si>
+    <t>TETRIX_739071_2012</t>
+  </si>
+  <si>
+    <t>288mm Angle</t>
+  </si>
+  <si>
+    <t>TETRIX_739072_2012</t>
+  </si>
+  <si>
+    <t>144mm Angle</t>
+  </si>
+  <si>
+    <t>TETRIX_739073_2012</t>
+  </si>
+  <si>
+    <t>Flat Building Plage</t>
+  </si>
+  <si>
+    <t>TETRIX_739079_2012</t>
+  </si>
+  <si>
+    <t>Motor Hub</t>
+  </si>
+  <si>
+    <t>TETRIX_739083_2012</t>
+  </si>
+  <si>
+    <t>TETRIX DC Motor</t>
+  </si>
+  <si>
+    <t>TETRIX_739086_2012</t>
+  </si>
+  <si>
+    <t>80-Tooth Gear</t>
+  </si>
+  <si>
+    <t>TETRIX_739088_2013</t>
+  </si>
+  <si>
+    <t>TETRIX_739089_2012</t>
+  </si>
+  <si>
+    <t>DC Motor Mount</t>
+  </si>
+  <si>
+    <t>TETRIX_739090_2012</t>
+  </si>
+  <si>
+    <t>Gear Hub Spacer</t>
+  </si>
+  <si>
+    <t>TETRIX_739091_2013</t>
+  </si>
+  <si>
+    <t>Bronze Bushing</t>
+  </si>
+  <si>
+    <t>TETRIX_739092_ 2012</t>
+  </si>
+  <si>
+    <t>Axel Collar</t>
+  </si>
+  <si>
+    <t>TETRIX_739094_2013</t>
+  </si>
+  <si>
+    <t>Kep Nut</t>
+  </si>
+  <si>
+    <t>TETRIX_739097_2013</t>
+  </si>
+  <si>
+    <t>1/2" Socket Head Cap Screw</t>
+  </si>
+  <si>
+    <t>TETRIX_739098_2012</t>
+  </si>
+  <si>
+    <t>5/16" Socket Head Cap Screw</t>
+  </si>
+  <si>
+    <t>TETRIX_739100_2012</t>
+  </si>
+  <si>
+    <t>1/8" Axel Spacer</t>
+  </si>
+  <si>
+    <t>TETRIX_739101_2012</t>
+  </si>
+  <si>
+    <t>3/8" Axel Spacer</t>
+  </si>
+  <si>
+    <t>TETRIX_739102_2012</t>
+  </si>
+  <si>
+    <t>1" Stand-off</t>
+  </si>
+  <si>
+    <t>TETRIX_739107_2013</t>
+  </si>
+  <si>
+    <t>32mm Stand-of</t>
+  </si>
+  <si>
+    <t>TETRIX_739111_2012</t>
+  </si>
+  <si>
+    <t>TETRIX_739120_2012</t>
+  </si>
+  <si>
+    <t>TETRIX_739172_ 2012</t>
+  </si>
+  <si>
+    <t>TETRIX_739270_2013</t>
+  </si>
+  <si>
+    <t>Button Head Cap Screw</t>
+  </si>
+  <si>
+    <t>Hard Point Connector</t>
+  </si>
+  <si>
+    <t>Axel Hub</t>
+  </si>
+  <si>
+    <t>Motor Mount Screw</t>
+  </si>
+  <si>
+    <t>Standard-Scale HS-485HB Servo Motor</t>
+  </si>
+  <si>
+    <t>Inside C Connector</t>
+  </si>
+  <si>
+    <t>AZ34303</t>
+  </si>
+  <si>
+    <t>AZ34302</t>
+  </si>
+  <si>
+    <t>AZ36465</t>
+  </si>
+  <si>
+    <t>AZ39085</t>
+  </si>
+  <si>
+    <t>AZ36466</t>
+  </si>
+  <si>
+    <t>AZ38009</t>
+  </si>
+  <si>
+    <t>AZ39028</t>
+  </si>
+  <si>
+    <t>TETRIX</t>
+  </si>
+  <si>
+    <t>Battery Pack Charger</t>
+  </si>
+  <si>
+    <t>az39830</t>
+  </si>
+  <si>
+    <t>Gear Hub Spacers</t>
+  </si>
+  <si>
+    <t>AZ39090</t>
+  </si>
+  <si>
+    <t>AZ39060</t>
+  </si>
+  <si>
+    <t>AZ39061</t>
+  </si>
+  <si>
+    <t>AZ39062</t>
+  </si>
+  <si>
+    <t>AZ39065</t>
+  </si>
+  <si>
+    <t>AZ39066</t>
+  </si>
+  <si>
+    <t>AZ39067</t>
+  </si>
+  <si>
+    <t>AZ39068</t>
+  </si>
+  <si>
+    <t>AZ39270</t>
+  </si>
+  <si>
+    <t>AZ39071</t>
+  </si>
+  <si>
+    <t>AZ39072</t>
+  </si>
+  <si>
+    <t>AZ39073</t>
+  </si>
+  <si>
+    <t>AZ39530</t>
+  </si>
+  <si>
+    <t>AZ39086</t>
+  </si>
+  <si>
+    <t>100 mm Axle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 mm Axle </t>
+  </si>
+  <si>
+    <t>AZ39376</t>
+  </si>
+  <si>
+    <t>AZ39091</t>
+  </si>
+  <si>
+    <t>AZ39092</t>
+  </si>
+  <si>
+    <t>W39098</t>
+  </si>
+  <si>
+    <t>W39097</t>
+  </si>
+  <si>
+    <t>W39100</t>
+  </si>
+  <si>
+    <t>W39101</t>
+  </si>
+  <si>
+    <t>W39102</t>
+  </si>
+  <si>
+    <t>W39107</t>
+  </si>
+  <si>
+    <t>W39111</t>
+  </si>
+  <si>
+    <t>W39120</t>
+  </si>
+  <si>
+    <t>W39172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTOR MOUNT </t>
+  </si>
+  <si>
+    <t>TETRIX_MAXMOTORMOUNT</t>
+  </si>
+  <si>
+    <t>W3989</t>
+  </si>
+  <si>
+    <t>w380000</t>
+  </si>
+  <si>
+    <t>NEVEREST_60_MOTOR</t>
+  </si>
+  <si>
+    <t>AM-3103</t>
+  </si>
+  <si>
+    <t>Motor with encoder</t>
+  </si>
+  <si>
+    <t>Andymark</t>
+  </si>
+  <si>
+    <t>1.46"dia</t>
+  </si>
+  <si>
+    <t>AM-2992</t>
+  </si>
+  <si>
+    <t>19.5"</t>
+  </si>
+  <si>
+    <t>AndyMark</t>
+  </si>
+  <si>
+    <t>hall_affect_encoder_cable</t>
+  </si>
+  <si>
+    <t>encoder cable with 4_pin connector</t>
+  </si>
+  <si>
+    <t>have 3- don't know how many work.</t>
+  </si>
+  <si>
+    <t>Have 1 new one</t>
+  </si>
+  <si>
+    <t>Check with Andy Mark</t>
+  </si>
+  <si>
+    <t>Order from andy aMark with encoder.</t>
+  </si>
+  <si>
+    <t>6 DC motors</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>AZ38007</t>
+  </si>
+  <si>
+    <t>Tetrix Max Vevel Gear &amp; Acetal Bearings</t>
+  </si>
+  <si>
+    <t>AZ39375</t>
+  </si>
+  <si>
+    <t>Tetrix Max Worm Gear Box</t>
+  </si>
+  <si>
+    <t>4:1 worm gear</t>
+  </si>
+  <si>
+    <t>AZ39171</t>
+  </si>
+  <si>
+    <t>Tetrix Max 32-Tooth Sprocket Pack</t>
+  </si>
+  <si>
+    <t>Chain sprockets</t>
+  </si>
+  <si>
+    <t>32 tooth</t>
+  </si>
+  <si>
+    <t>Az39169</t>
+  </si>
+  <si>
+    <t>Tetrix Max 24-Tooth Sprocket Pack</t>
+  </si>
+  <si>
+    <t>Az39165</t>
+  </si>
+  <si>
+    <t>Tetrix Max 16-Tooth Sprocket Pack</t>
   </si>
 </sst>
 </file>
@@ -254,10 +775,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -281,9 +815,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,17 +1119,2169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N38"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="780" topLeftCell="A17" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>G2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>416/25</f>
+        <v>16.64</v>
+      </c>
+      <c r="M2">
+        <v>416</v>
+      </c>
+      <c r="N2">
+        <f>M2/25</f>
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J25" si="0">G4*I4</f>
+        <v>19.8</v>
+      </c>
+      <c r="M4">
+        <v>288</v>
+      </c>
+      <c r="N4">
+        <f>M4/25</f>
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>346</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="1">
+        <v>27.17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>693</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1">
+        <v>89.95</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28:J84" si="1">G28*I28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1">
+        <v>79.95</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="25.5">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>79.95</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="25.5">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="1"/>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>41.849999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="1"/>
+        <v>32.849999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>211</v>
+      </c>
+      <c r="L52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="1"/>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="1"/>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="1"/>
+        <v>63.8</v>
+      </c>
+      <c r="L56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="1"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="H58">
+        <v>12</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="25.5">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="1"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H67">
+        <v>50</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="1">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="1"/>
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="25.5">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="1">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="25.5">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="1">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="1"/>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="1">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="1"/>
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83">
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="1"/>
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="1"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="J85" s="1">
+        <f>SUM(J28:J84)</f>
+        <v>1013.5000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N79"/>
+  <sheetViews>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="495" topLeftCell="A45" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="13.28515625"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
@@ -597,11 +3290,14 @@
     <col min="11" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -626,11 +3322,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
-      <c r="B2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -664,11 +3360,11 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -695,11 +3391,11 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
@@ -722,11 +3418,11 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -749,11 +3445,11 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
@@ -773,11 +3469,11 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
@@ -800,11 +3496,11 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
@@ -824,11 +3520,11 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
@@ -851,11 +3547,11 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
@@ -878,11 +3574,11 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
@@ -905,11 +3601,11 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
@@ -932,11 +3628,11 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F14" t="s">
@@ -956,11 +3652,11 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
@@ -983,11 +3679,11 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D16" t="s">
@@ -1010,11 +3706,11 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F17" t="s">
@@ -1034,8 +3730,8 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="C18" t="s">
+    <row r="18" spans="1:10">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
@@ -1046,8 +3742,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
-      <c r="C19" t="s">
+    <row r="19" spans="1:10">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F19" t="s">
@@ -1058,11 +3754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D20" t="s">
@@ -1085,11 +3781,11 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F21" t="s">
@@ -1109,11 +3805,11 @@
         <v>95.699999999999989</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F22" t="s">
@@ -1133,11 +3829,11 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D23">
@@ -1160,11 +3856,11 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D24">
@@ -1187,11 +3883,11 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D25" t="s">
@@ -1214,36 +3910,981 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
-      <c r="C28" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1">
+        <v>89.95</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
-      <c r="C29" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1">
+        <v>79.95</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="25.5">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>79.95</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
       <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" s="1">
-        <f>SUM(J2:J22)</f>
-        <v>644</v>
+        <v>91</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1">
+        <v>49.95</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="25.5">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1">
+        <v>16.95</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="H58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="25.5">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="1">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="25.5">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="1">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="25.5">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="1">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="order (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -20,7 +21,7 @@
     <author>Mike McMillan</author>
   </authors>
   <commentList>
-    <comment ref="I34" authorId="0">
+    <comment ref="J56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,8 +85,43 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike McMillan</author>
+  </authors>
+  <commentList>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mike McMillan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAY NOT NEED FOR NEW ELECTIONICS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="244">
   <si>
     <t>part Number</t>
   </si>
@@ -766,6 +802,57 @@
   </si>
   <si>
     <t>Tetrix Max 16-Tooth Sprocket Pack</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>Angles</t>
+  </si>
+  <si>
+    <t>Flat Building Plate</t>
+  </si>
+  <si>
+    <t>Plates</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Axles/Shafts</t>
+  </si>
+  <si>
+    <t>Screws/Nuts</t>
+  </si>
+  <si>
+    <t>Servo's</t>
+  </si>
+  <si>
+    <t>Chains/Sprockets</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Miscellaneous Small Parts</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Controllers / Power distribution</t>
+  </si>
+  <si>
+    <t>12 Volt - NIMH</t>
+  </si>
+  <si>
+    <t>Gears</t>
   </si>
 </sst>
 </file>
@@ -795,12 +882,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -815,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -825,6 +930,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,12 +1235,1960 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="660" topLeftCell="A16" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3*J3</f>
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4*J4</f>
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <f>H5*J5</f>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <f>H6*J6</f>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7*J7</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <f>H10*J10</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>H11*J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
+        <f>H12*J12</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13" si="0">H13*J13</f>
+        <v>29.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <f>H16*J16</f>
+        <v>41.849999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4">
+        <f>H17*J17</f>
+        <v>32.849999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12.95</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <f>H20*J20</f>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f>H23*J23</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f>H24*J24</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>H25*J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26" si="1">H26*J26</f>
+        <v>34.75</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I27" s="5">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
+        <f>H27*J27</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>H28*J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="5">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>H29*J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <f>H32*J32</f>
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="5">
+        <v>32</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33:K35" si="2">H33*J33</f>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="5">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="5">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <f>H38*J38</f>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f>H39*J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f>H40*J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
+        <f>H41*J41</f>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <f>H42*J42</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="4">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <f>H43*J43</f>
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46" s="4">
+        <v>25</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f>H46*J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="B47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f>H47*J47</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <f>H48*J48</f>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f>H49*J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12" customHeight="1">
+      <c r="B50" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>4</v>
+      </c>
+      <c r="K50" s="4">
+        <f>H50*J50</f>
+        <v>63.8</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f>H51*J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="C52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f>H52*J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>6</v>
+      </c>
+      <c r="K53" s="4">
+        <f>H53*J53</f>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f>H54*J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="25.5">
+      <c r="B55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>8</v>
+      </c>
+      <c r="K55" s="4">
+        <f>H55*J55</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f>H56*J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f>H59*J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="25.5">
+      <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <f>H60*J60</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="25.5">
+      <c r="B61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" ref="K61" si="3">H61*J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="B64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="4">
+        <v>89.95</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f>H64*J64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="C65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f>H65*J65</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="B66" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f>H66*J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="68" spans="1:13">
+      <c r="A68" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5">
+        <v>4</v>
+      </c>
+      <c r="K69" s="4">
+        <f>H69*J69</f>
+        <v>79.8</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I70" s="5">
+        <v>2</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <f>H70*J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="B73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I73" s="5">
+        <v>100</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" ref="K73:K88" si="4">H73*J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I74" s="5">
+        <v>100</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="B75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I75" s="5">
+        <v>50</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I76" s="5">
+        <v>100</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f>H76*J76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="B77" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I77" s="5">
+        <v>100</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <f>H77*J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17.25" customHeight="1">
+      <c r="B78" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I78" s="5">
+        <v>100</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f>H78*J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="B79" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I79" s="5">
+        <v>50</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f>H79*J79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="4">
+        <v>49.95</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <f>H83*J83</f>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="B84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="5">
+        <v>2</v>
+      </c>
+      <c r="K84" s="4">
+        <f>H84*J84</f>
+        <v>11.9</v>
+      </c>
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="B85" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <f>H85*J85</f>
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="B88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J88" s="5">
+        <v>16</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="B89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <f>H89*J89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="B92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="5">
+        <v>346</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" s="4">
+        <v>27.17</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J92" s="5">
+        <v>1</v>
+      </c>
+      <c r="K92" s="4">
+        <f>H92*J92</f>
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="5">
+        <v>693</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="4">
+        <v>12.77</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <f>H93*J93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+      <c r="J94" s="5">
+        <v>8</v>
+      </c>
+      <c r="K94" s="4">
+        <f>H94*J94</f>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I97" s="5">
+        <v>12</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+      <c r="K97" s="4">
+        <f>H97*J97</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I98" s="5">
+        <v>12</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
+        <f>H98*J98</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I99" s="5">
+        <v>12</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <f>H99*J99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="4">
+        <v>12</v>
+      </c>
+      <c r="I100" s="5">
+        <v>12</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <f>H100*J100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="K103" s="4">
+        <f>SUM(K2:K102)</f>
+        <v>1113.4800000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="780" topLeftCell="A17" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="780" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1234,6 +3298,7 @@
         <f t="shared" ref="J4:J25" si="0">G4*I4</f>
         <v>19.8</v>
       </c>
+      <c r="K4" s="8"/>
       <c r="M4">
         <v>288</v>
       </c>
@@ -1502,6 +3567,7 @@
         <f t="shared" si="0"/>
         <v>13.95</v>
       </c>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -1556,6 +3622,7 @@
         <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
@@ -1679,6 +3746,7 @@
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
@@ -1706,6 +3774,7 @@
         <f t="shared" si="0"/>
         <v>27.17</v>
       </c>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
@@ -1760,6 +3829,7 @@
         <f t="shared" si="0"/>
         <v>12.16</v>
       </c>
+      <c r="K25" s="8"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
@@ -1853,6 +3923,7 @@
         <f t="shared" si="1"/>
         <v>27.95</v>
       </c>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
@@ -1961,6 +4032,7 @@
         <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
@@ -2015,6 +4087,7 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
+      <c r="K37" s="8"/>
       <c r="L37" t="s">
         <v>209</v>
       </c>
@@ -2045,6 +4118,7 @@
         <f t="shared" si="1"/>
         <v>49.95</v>
       </c>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
@@ -2072,6 +4146,7 @@
         <f t="shared" si="1"/>
         <v>24.95</v>
       </c>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:12" ht="25.5">
       <c r="A40" t="s">
@@ -2099,6 +4174,7 @@
         <f t="shared" si="1"/>
         <v>9.9499999999999993</v>
       </c>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
@@ -2126,6 +4202,7 @@
         <f t="shared" si="1"/>
         <v>23.8</v>
       </c>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
@@ -2180,6 +4257,7 @@
         <f t="shared" si="1"/>
         <v>19.899999999999999</v>
       </c>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
@@ -2207,6 +4285,7 @@
         <f t="shared" si="1"/>
         <v>47.8</v>
       </c>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
@@ -2234,6 +4313,7 @@
         <f t="shared" si="1"/>
         <v>33.9</v>
       </c>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
@@ -2261,6 +4341,7 @@
         <f t="shared" si="1"/>
         <v>55.9</v>
       </c>
+      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
@@ -2288,6 +4369,7 @@
         <f t="shared" si="1"/>
         <v>71.8</v>
       </c>
+      <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
@@ -2315,6 +4397,7 @@
         <f t="shared" si="1"/>
         <v>41.849999999999994</v>
       </c>
+      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
@@ -2342,6 +4425,7 @@
         <f t="shared" si="1"/>
         <v>32.849999999999994</v>
       </c>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
@@ -2369,6 +4453,7 @@
         <f t="shared" si="1"/>
         <v>25.9</v>
       </c>
+      <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
@@ -2396,6 +4481,7 @@
         <f t="shared" si="1"/>
         <v>5.95</v>
       </c>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
@@ -2483,6 +4569,7 @@
         <f t="shared" si="1"/>
         <v>15.95</v>
       </c>
+      <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
@@ -2510,6 +4597,7 @@
         <f t="shared" si="1"/>
         <v>15.95</v>
       </c>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
@@ -2537,6 +4625,7 @@
         <f t="shared" si="1"/>
         <v>63.8</v>
       </c>
+      <c r="K56" s="8"/>
       <c r="L56" t="s">
         <v>212</v>
       </c>
@@ -2567,6 +4656,7 @@
         <f t="shared" si="1"/>
         <v>27.8</v>
       </c>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
@@ -2621,6 +4711,7 @@
         <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
@@ -2783,6 +4874,7 @@
         <f t="shared" si="1"/>
         <v>3.95</v>
       </c>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
@@ -2810,6 +4902,7 @@
         <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
+      <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
@@ -2891,6 +4984,7 @@
         <f t="shared" si="1"/>
         <v>34.75</v>
       </c>
+      <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:12">
       <c r="B70" t="s">
@@ -2963,6 +5057,7 @@
         <f t="shared" si="1"/>
         <v>29.700000000000003</v>
       </c>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
@@ -3107,6 +5202,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="K79" s="10"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
@@ -3131,8 +5227,9 @@
         <f t="shared" si="1"/>
         <v>29.95</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -3158,8 +5255,9 @@
         <f t="shared" si="1"/>
         <v>34.950000000000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>219</v>
       </c>
@@ -3188,8 +5286,9 @@
         <f t="shared" si="1"/>
         <v>59.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>223</v>
       </c>
@@ -3218,8 +5317,9 @@
         <f t="shared" si="1"/>
         <v>45.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>225</v>
       </c>
@@ -3248,11 +5348,12 @@
         <f t="shared" si="1"/>
         <v>33.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="J85" s="1">
-        <f>SUM(J28:J84)</f>
-        <v>1013.5000000000001</v>
+        <f>SUM(J2:J84)</f>
+        <v>1113.4800000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>

--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="order" sheetId="2" r:id="rId1"/>
-    <sheet name="order (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="order (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="order" sheetId="2" r:id="rId2"/>
+    <sheet name="order (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -56,7 +57,7 @@
     <author>Mike McMillan</author>
   </authors>
   <commentList>
-    <comment ref="I34" authorId="0">
+    <comment ref="J56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,8 +121,43 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike McMillan</author>
+  </authors>
+  <commentList>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mike McMillan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAY NOT NEED FOR NEW ELECTIONICS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="259">
   <si>
     <t>part Number</t>
   </si>
@@ -853,6 +889,51 @@
   </si>
   <si>
     <t>Gears</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Coiled wire (McMaster-Carr)</t>
+  </si>
+  <si>
+    <t>Power (14 gauge (black white)</t>
+  </si>
+  <si>
+    <t>thread pulleys</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (McMaster-Carr)</t>
+  </si>
+  <si>
+    <t>Retracting Cable (300V AC-Light Duty)</t>
+  </si>
+  <si>
+    <t>18 Gauge 2 wire</t>
+  </si>
+  <si>
+    <t>TETRIX MAX Omni Wheel Pack</t>
+  </si>
+  <si>
+    <t>4 inch</t>
+  </si>
+  <si>
+    <t>W36466</t>
+  </si>
+  <si>
+    <t>W39104</t>
+  </si>
+  <si>
+    <t>7/64, 3/32, 1/16, 5/64</t>
+  </si>
+  <si>
+    <t>7088k211</t>
+  </si>
+  <si>
+    <t>2ft, 18ga</t>
+  </si>
+  <si>
+    <t>4"</t>
   </si>
 </sst>
 </file>
@@ -1235,12 +1316,2035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="660" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="795" topLeftCell="A62" activePane="bottomLeft"/>
+      <selection activeCell="D13" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3*J3</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4*J4</f>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>H5*J5</f>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>H6*J6</f>
+        <v>35.849999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7*J7</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <f>H10*J10</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>H11*J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4">
+        <f>H12*J12</f>
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13" si="0">H13*J13</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <f>H16*J16</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <f>H17*J17</f>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12.95</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f>H20*J20</f>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f>H23*J23</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f>H24*J24</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>H25*J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26" si="1">H26*J26</f>
+        <v>27.8</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I27" s="5">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
+        <f>H27*J27</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1">
+      <c r="B28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>H28*J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1">
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="5">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>H29*J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <f>H32*J32</f>
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="5">
+        <v>32</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33:K35" si="2">H33*J33</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="5">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="5">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K43" si="3">H38*J38</f>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1">
+      <c r="B39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1">
+      <c r="B40" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1">
+      <c r="B42" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1">
+      <c r="B43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="4">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1">
+      <c r="B46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46" s="4">
+        <v>25</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" ref="K46:K56" si="4">H46*J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1">
+      <c r="B47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1">
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1">
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12" hidden="1" customHeight="1">
+      <c r="B50" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1">
+      <c r="B51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1">
+      <c r="C52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1">
+      <c r="B54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="25.5">
+      <c r="B55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>4</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1">
+      <c r="B56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" hidden="1">
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f>H59*J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="25.5">
+      <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <f>H60*J60</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="25.5" hidden="1">
+      <c r="B61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" ref="K61" si="5">H61*J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1">
+      <c r="B64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="4">
+        <v>89.95</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f>H64*J64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1">
+      <c r="C65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f>H65*J65</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1">
+      <c r="B66" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f>H66*J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="68" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" t="s">
+        <v>257</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H70" s="4">
+        <v>25.52</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <f>H70*J70</f>
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16.5" customHeight="1">
+      <c r="C71"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:13" ht="12.75" customHeight="1">
+      <c r="B73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>2</v>
+      </c>
+      <c r="K73" s="4">
+        <f>H73*J73</f>
+        <v>39.9</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="16.5" hidden="1" customHeight="1">
+      <c r="B74" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I74" s="5">
+        <v>2</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f>H74*J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I75" s="5">
+        <v>2</v>
+      </c>
+      <c r="J75" s="5">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1">
+      <c r="B78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I78" s="5">
+        <v>100</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" ref="K78:K94" si="6">H78*J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" hidden="1">
+      <c r="B79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I79" s="5">
+        <v>100</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1">
+      <c r="B80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I80" s="5">
+        <v>50</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1">
+      <c r="B81" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I81" s="5">
+        <v>100</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>H81*J81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1">
+      <c r="B82" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I82" s="5">
+        <v>100</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f>H82*J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="17.25" hidden="1" customHeight="1">
+      <c r="B83" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I83" s="5">
+        <v>100</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f>H83*J83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1">
+      <c r="B84" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I84" s="5">
+        <v>50</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f>H84*J84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1">
+      <c r="B88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="4">
+        <v>49.95</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f>H88*J88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1">
+      <c r="B89" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <f>H89*J89</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" hidden="1">
+      <c r="B90" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <f>H90*J90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="6"/>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>255</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I94" t="s">
+        <v>50</v>
+      </c>
+      <c r="J94" s="5">
+        <v>2</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" hidden="1">
+      <c r="B97" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="5">
+        <v>346</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="4">
+        <v>27.17</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f>H97*J97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" hidden="1">
+      <c r="B98" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" s="5">
+        <v>693</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H98" s="4">
+        <v>12.77</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <f>H98*J98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" hidden="1">
+      <c r="B99" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <f>H99*J99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I102" s="5">
+        <v>12</v>
+      </c>
+      <c r="J102" s="5">
+        <v>1</v>
+      </c>
+      <c r="K102" s="4">
+        <f>H102*J102</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I103" s="5">
+        <v>12</v>
+      </c>
+      <c r="J103" s="5">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4">
+        <f>H103*J103</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" hidden="1">
+      <c r="B104" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I104" s="5">
+        <v>12</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
+        <f>H104*J104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" hidden="1">
+      <c r="B105" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="4">
+        <v>12</v>
+      </c>
+      <c r="I105" s="5">
+        <v>12</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <f>H105*J105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="K108" s="4">
+        <f>SUM(K2:K107)</f>
+        <v>661.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="660" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1975,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="4">
-        <f>H38*J38</f>
+        <f t="shared" ref="K38:K43" si="3">H38*J38</f>
         <v>27.95</v>
       </c>
     </row>
@@ -2002,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f>H39*J39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2029,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4">
-        <f>H40*J40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2056,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="K41" s="4">
-        <f>H41*J41</f>
+        <f t="shared" si="3"/>
         <v>27.8</v>
       </c>
     </row>
@@ -2080,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="4">
-        <f>H42*J42</f>
+        <f t="shared" si="3"/>
         <v>29.95</v>
       </c>
     </row>
@@ -2107,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="4">
-        <f>H43*J43</f>
+        <f t="shared" si="3"/>
         <v>34.950000000000003</v>
       </c>
     </row>
@@ -2142,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4">
-        <f>H46*J46</f>
+        <f t="shared" ref="K46:K56" si="4">H46*J46</f>
         <v>0</v>
       </c>
     </row>
@@ -2169,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4">
-        <f>H47*J47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -2202,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="4">
-        <f>H48*J48</f>
+        <f t="shared" si="4"/>
         <v>5.95</v>
       </c>
     </row>
@@ -2226,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <f>H49*J49</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2253,7 +4357,7 @@
         <v>4</v>
       </c>
       <c r="K50" s="4">
-        <f>H50*J50</f>
+        <f t="shared" si="4"/>
         <v>63.8</v>
       </c>
       <c r="M50" s="5" t="s">
@@ -2283,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <f>H51*J51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2301,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <f>H52*J52</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2325,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="4">
-        <f>H53*J53</f>
+        <f t="shared" si="4"/>
         <v>11.7</v>
       </c>
     </row>
@@ -2352,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="4">
-        <f>H54*J54</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2382,7 +4486,7 @@
         <v>8</v>
       </c>
       <c r="K55" s="4">
-        <f>H55*J55</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
@@ -2409,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="4">
-        <f>H56*J56</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2492,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" ref="K61" si="3">H61*J61</f>
+        <f t="shared" ref="K61" si="5">H61*J61</f>
         <v>0</v>
       </c>
     </row>
@@ -2568,169 +4672,103 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1"/>
-    <row r="68" spans="1:13">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" customHeight="1">
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="14.25" customHeight="1">
+      <c r="C70" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
-      <c r="B69" s="5" t="s">
+    <row r="72" spans="1:13">
+      <c r="B72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="G72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="4">
         <v>19.95</v>
       </c>
-      <c r="I69" s="5">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5">
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
         <v>4</v>
       </c>
-      <c r="K69" s="4">
-        <f>H69*J69</f>
+      <c r="K72" s="4">
+        <f>H72*J72</f>
         <v>79.8</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B70" s="5" t="s">
+    <row r="73" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B73" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="G73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="4">
         <v>29.95</v>
       </c>
-      <c r="I70" s="5">
-        <v>2</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <f>H70*J70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="5" t="s">
+      <c r="I73" s="5">
+        <v>2</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f>H73*J73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="5" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="B73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="I73" s="5">
-        <v>100</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <f t="shared" ref="K73:K88" si="4">H73*J73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="B74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="I74" s="5">
-        <v>100</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="B75" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="4">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I75" s="5">
-        <v>50</v>
-      </c>
-      <c r="J75" s="5">
-        <v>0</v>
-      </c>
-      <c r="K75" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="B76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>131</v>
+        <v>16</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H76" s="4">
-        <v>2.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="I76" s="5">
         <v>100</v>
@@ -2739,19 +4777,19 @@
         <v>0</v>
       </c>
       <c r="K76" s="4">
-        <f>H76*J76</f>
+        <f t="shared" ref="K76:K91" si="6">H76*J76</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="B77" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>133</v>
+        <v>20</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>22</v>
@@ -2766,55 +4804,55 @@
         <v>0</v>
       </c>
       <c r="K77" s="4">
-        <f>H77*J77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="17.25" customHeight="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="B78" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>135</v>
+        <v>26</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="4">
-        <v>9.9499999999999993</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I78" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J78" s="5">
         <v>0</v>
       </c>
       <c r="K78" s="4">
-        <f>H78*J78</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="B79" s="5" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="4">
-        <v>8.9499999999999993</v>
+        <v>2.95</v>
       </c>
       <c r="I79" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J79" s="5">
         <v>0</v>
@@ -2824,349 +4862,430 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:13">
+      <c r="B80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I80" s="5">
+        <v>100</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f>H80*J80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B81" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I81" s="5">
+        <v>100</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>H81*J81</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="5" t="s">
+      <c r="B82" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I82" s="5">
+        <v>50</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f>H82*J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="B83" s="5" t="s">
+    <row r="86" spans="1:12">
+      <c r="B86" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="4">
+      <c r="G86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="4">
         <v>49.95</v>
       </c>
-      <c r="I83" s="5">
-        <v>1</v>
-      </c>
-      <c r="J83" s="5">
-        <v>1</v>
-      </c>
-      <c r="K83" s="4">
-        <f>H83*J83</f>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <f>H86*J86</f>
         <v>49.95</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="B84" s="5" t="s">
+    <row r="87" spans="1:12">
+      <c r="B87" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="4">
+      <c r="G87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="4">
         <v>5.95</v>
       </c>
-      <c r="I84" s="5">
-        <v>1</v>
-      </c>
-      <c r="J84" s="5">
-        <v>2</v>
-      </c>
-      <c r="K84" s="4">
-        <f>H84*J84</f>
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+      <c r="J87" s="5">
+        <v>2</v>
+      </c>
+      <c r="K87" s="4">
+        <f>H87*J87</f>
         <v>11.9</v>
       </c>
-      <c r="L84" s="11"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="B85" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="4">
-        <v>24.95</v>
-      </c>
-      <c r="I85" s="5">
-        <v>1</v>
-      </c>
-      <c r="J85" s="5">
-        <v>1</v>
-      </c>
-      <c r="K85" s="4">
-        <f>H85*J85</f>
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="L87" s="11"/>
     </row>
     <row r="88" spans="1:12">
       <c r="B88" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <f>H88*J88</f>
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="B91" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" s="4">
+      <c r="G91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="4">
         <v>0.95</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J91" s="5">
         <v>16</v>
       </c>
-      <c r="K88" s="4">
-        <f t="shared" si="4"/>
+      <c r="K91" s="4">
+        <f t="shared" si="6"/>
         <v>15.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="B89" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="4">
-        <v>16.95</v>
-      </c>
-      <c r="I89" s="5">
-        <v>1</v>
-      </c>
-      <c r="J89" s="5">
-        <v>0</v>
-      </c>
-      <c r="K89" s="4">
-        <f>H89*J89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="B92" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="5">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H92" s="4">
-        <v>27.17</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>65</v>
+        <v>16.95</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
       </c>
       <c r="J92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="4">
         <f>H92*J92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="5">
+        <v>346</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H95" s="4">
         <v>27.17</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="B93" s="5" t="s">
+      <c r="I95" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J95" s="5">
+        <v>1</v>
+      </c>
+      <c r="K95" s="4">
+        <f>H95*J95</f>
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E96" s="5">
         <v>693</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H96" s="4">
         <v>12.77</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J93" s="5">
-        <v>0</v>
-      </c>
-      <c r="K93" s="4">
-        <f>H93*J93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="B94" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H94" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="I94" s="5">
-        <v>1</v>
-      </c>
-      <c r="J94" s="5">
-        <v>8</v>
-      </c>
-      <c r="K94" s="4">
-        <f>H94*J94</f>
-        <v>12.16</v>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f>H96*J96</f>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>141</v>
+        <v>70</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H97" s="4">
-        <v>3.95</v>
+        <v>1.52</v>
       </c>
       <c r="I97" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J97" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K97" s="4">
         <f>H97*J97</f>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="4">
-        <v>4.95</v>
-      </c>
-      <c r="I98" s="5">
-        <v>12</v>
-      </c>
-      <c r="J98" s="5">
-        <v>1</v>
-      </c>
-      <c r="K98" s="4">
-        <f>H98*J98</f>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="4">
-        <v>13.95</v>
-      </c>
-      <c r="I99" s="5">
-        <v>12</v>
-      </c>
-      <c r="J99" s="5">
-        <v>0</v>
-      </c>
-      <c r="K99" s="4">
-        <f>H99*J99</f>
-        <v>0</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>145</v>
+        <v>188</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H100" s="4">
-        <v>12</v>
+        <v>3.95</v>
       </c>
       <c r="I100" s="5">
         <v>12</v>
       </c>
       <c r="J100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="4">
         <f>H100*J100</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I101" s="5">
+        <v>12</v>
+      </c>
+      <c r="J101" s="5">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
+        <f>H101*J101</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I102" s="5">
+        <v>12</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <f>H102*J102</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:11">
+      <c r="B103" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="4">
+        <v>12</v>
+      </c>
+      <c r="I103" s="5">
+        <v>12</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
       <c r="K103" s="4">
-        <f>SUM(K2:K102)</f>
+        <f>H103*J103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="K106" s="4">
+        <f>SUM(K2:K105)</f>
         <v>1113.4800000000005</v>
       </c>
     </row>
@@ -3181,7 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N85"/>
   <sheetViews>
@@ -5367,7 +7486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>

--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="order (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="order" sheetId="2" r:id="rId2"/>
-    <sheet name="order (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="order (4)" sheetId="5" r:id="rId1"/>
+    <sheet name="order (3)" sheetId="4" r:id="rId2"/>
+    <sheet name="order" sheetId="2" r:id="rId3"/>
+    <sheet name="order (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -92,7 +93,7 @@
     <author>Mike McMillan</author>
   </authors>
   <commentList>
-    <comment ref="I34" authorId="0">
+    <comment ref="J56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,8 +157,43 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike McMillan</author>
+  </authors>
+  <commentList>
+    <comment ref="I34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mike McMillan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAY NOT NEED FOR NEW ELECTIONICS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="320">
   <si>
     <t>part Number</t>
   </si>
@@ -934,6 +970,189 @@
   </si>
   <si>
     <t>4"</t>
+  </si>
+  <si>
+    <t>Color Sensor</t>
+  </si>
+  <si>
+    <t>Polycarbonate</t>
+  </si>
+  <si>
+    <t>Tread &amp; Inserts</t>
+  </si>
+  <si>
+    <t>Check with Caddics</t>
+  </si>
+  <si>
+    <t>Tread Kits</t>
+  </si>
+  <si>
+    <t>W36468</t>
+  </si>
+  <si>
+    <t>Tetrix Max Tank Tread Kit</t>
+  </si>
+  <si>
+    <t>Pitsco (Tetrix)</t>
+  </si>
+  <si>
+    <t>W36464</t>
+  </si>
+  <si>
+    <t>Tetrix Max Tank Tread Inserts</t>
+  </si>
+  <si>
+    <t>9697T2</t>
+  </si>
+  <si>
+    <t>Easy-ID Low-Voltage Cable</t>
+  </si>
+  <si>
+    <t>18 Gauge 2 wire black/red</t>
+  </si>
+  <si>
+    <t>50ft, 18 ga</t>
+  </si>
+  <si>
+    <t>18 gauge wire</t>
+  </si>
+  <si>
+    <t>Polycarbonate Sheet</t>
+  </si>
+  <si>
+    <t>Polycarbonate sheet</t>
+  </si>
+  <si>
+    <t>Andy Mark</t>
+  </si>
+  <si>
+    <t>AM-0980</t>
+  </si>
+  <si>
+    <t>24"x24", 0.118"</t>
+  </si>
+  <si>
+    <t>0.118"</t>
+  </si>
+  <si>
+    <t>Core Device Interface Module</t>
+  </si>
+  <si>
+    <t>AUA3030</t>
+  </si>
+  <si>
+    <t>Modern Robotics, Inc.</t>
+  </si>
+  <si>
+    <t>W39069/AZ39069</t>
+  </si>
+  <si>
+    <t>W39068/AZ39068</t>
+  </si>
+  <si>
+    <t>W39067/AZ39067</t>
+  </si>
+  <si>
+    <t>W39066/AZ39066</t>
+  </si>
+  <si>
+    <t>W39065/AZ39065</t>
+  </si>
+  <si>
+    <t>W39085/AZ39085</t>
+  </si>
+  <si>
+    <t>W39090/AZ39090</t>
+  </si>
+  <si>
+    <t>W39055/AZ39055</t>
+  </si>
+  <si>
+    <t>Velcro</t>
+  </si>
+  <si>
+    <t>94985K911</t>
+  </si>
+  <si>
+    <t>Super Adhesive-back General Purpose Hook and Loop</t>
+  </si>
+  <si>
+    <t>2" x 5 ft</t>
+  </si>
+  <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
+    <t>W39061/AZ39061</t>
+  </si>
+  <si>
+    <t>W39281/AZ39281</t>
+  </si>
+  <si>
+    <t>W39270/AZ39270</t>
+  </si>
+  <si>
+    <t>W39071/AZ39071</t>
+  </si>
+  <si>
+    <t>W39072/AZ39072</t>
+  </si>
+  <si>
+    <t>W39073/AZ39073</t>
+  </si>
+  <si>
+    <t>W39088/AZ39088</t>
+  </si>
+  <si>
+    <t>W35871/AZ35871</t>
+  </si>
+  <si>
+    <t>W39092/AZ39092</t>
+  </si>
+  <si>
+    <t>W39165/Az39165</t>
+  </si>
+  <si>
+    <t>W39173/AZ39173</t>
+  </si>
+  <si>
+    <t>W39171/AZ39171</t>
+  </si>
+  <si>
+    <t>W39169/Az39169</t>
+  </si>
+  <si>
+    <t>W31903/AZ31903</t>
+  </si>
+  <si>
+    <t>GPF0310</t>
+  </si>
+  <si>
+    <t>Logitec F310 Gamepad</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>45-2018</t>
+  </si>
+  <si>
+    <t>Modern Robotics, Inc</t>
+  </si>
+  <si>
+    <t>Order if we can program the Hi technic sensor.</t>
+  </si>
+  <si>
+    <t>Order if we go with the color sensor.</t>
+  </si>
+  <si>
+    <t>McCloud may be getting wire</t>
+  </si>
+  <si>
+    <t>73095K48</t>
+  </si>
+  <si>
+    <t>Heat-Shrink Tubing Assortments</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +1207,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1001,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,6 +1253,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,9 +1550,2365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="885" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3*J3</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4*J4</f>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f>H5*J5</f>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <f>H6*J6</f>
+        <v>35.849999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7*J7</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <f>H10*J10</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>H11*J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4">
+        <f>H12*J12</f>
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13" si="0">H13*J13</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <f>H16*J16</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <f>H17*J17</f>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12.95</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f>H20*J20</f>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f>H23*J23</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f>H24*J24</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>H25*J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" ref="K26" si="1">H26*J26</f>
+        <v>27.8</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I27" s="5">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
+        <f>H27*J27</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1">
+      <c r="B28" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f>H28*J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1">
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="5">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>H29*J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <f>H32*J32</f>
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="5">
+        <v>32</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" ref="K33:K35" si="2">H33*J33</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="5">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="13">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="5">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="13">
+        <v>2</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K43" si="3">H38*J38</f>
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1">
+      <c r="B39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1">
+      <c r="B40" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1">
+      <c r="B42" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1">
+      <c r="B43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="4">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1">
+      <c r="B46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H46" s="4">
+        <v>25</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" ref="K46:K56" si="4">H46*J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1">
+      <c r="B47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1">
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I48" s="5">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1">
+      <c r="B49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12" hidden="1" customHeight="1">
+      <c r="B50" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1">
+      <c r="B51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1">
+      <c r="C52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="B53" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1">
+      <c r="B54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="25.5">
+      <c r="B55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>4</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1">
+      <c r="B56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" hidden="1">
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f>H59*J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="25.5">
+      <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <f>H60*J60</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="25.5" hidden="1">
+      <c r="B61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" ref="K61" si="5">H61*J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="B64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="4">
+        <v>89.95</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f>H64*J64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="B65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f>H65*J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="C66" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f>H66*J66</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G67" t="s">
+        <v>282</v>
+      </c>
+      <c r="H67" s="4">
+        <v>67.95</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="13">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f>H67*J67</f>
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68" t="s">
+        <v>282</v>
+      </c>
+      <c r="H68" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="11">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <f>H68*J68</f>
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69"/>
+      <c r="G69"/>
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70"/>
+      <c r="G70"/>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="B71" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" s="4">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f>H71*J71</f>
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="B72"/>
+      <c r="G72"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="74" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="4">
+        <v>25.52</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <f>H76*J76</f>
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B77" t="s">
+        <v>269</v>
+      </c>
+      <c r="C77" t="s">
+        <v>270</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" t="s">
+        <v>272</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="I77" s="5">
+        <v>1</v>
+      </c>
+      <c r="J77" s="13">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <f>H77*J77</f>
+        <v>15.5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78"/>
+      <c r="G78" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="4">
+        <v>27.12</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f>H78*J78</f>
+        <v>0</v>
+      </c>
+      <c r="M78"/>
+    </row>
+    <row r="79" spans="1:13" ht="16.5" customHeight="1">
+      <c r="C79"/>
+      <c r="D79" s="3"/>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:13" ht="12.75" customHeight="1">
+      <c r="B81" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1</v>
+      </c>
+      <c r="J81" s="13">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>H81*J81</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1">
+      <c r="B82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I82" s="5">
+        <v>2</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" ref="K82:K83" si="6">H82*J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="27.75" customHeight="1">
+      <c r="B83" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
+        <v>258</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I83" s="5">
+        <v>2</v>
+      </c>
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B84"/>
+      <c r="D84" s="3"/>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85"/>
+      <c r="D85" s="3"/>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86"/>
+      <c r="G86" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" s="4">
+        <v>99.95</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" ref="K86" si="7">H86*J86</f>
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87"/>
+      <c r="G87" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H87" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" ref="K87" si="8">H87*J87</f>
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H90" s="4">
+        <v>20</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5">
+        <v>2</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" ref="K90" si="9">H90*J90</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91" s="3"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92" s="3"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="B93" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H93" s="4">
+        <v>17.91</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" ref="K93" si="10">H93*J93</f>
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1">
+      <c r="B96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I96" s="5">
+        <v>100</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" ref="K96:K112" si="11">H96*J96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" hidden="1">
+      <c r="B97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I97" s="5">
+        <v>100</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1">
+      <c r="B98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I98" s="5">
+        <v>50</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1">
+      <c r="B99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I99" s="5">
+        <v>100</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <f>H99*J99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" hidden="1">
+      <c r="B100" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I100" s="5">
+        <v>100</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <f>H100*J100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17.25" hidden="1" customHeight="1">
+      <c r="B101" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I101" s="5">
+        <v>100</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
+        <f>H101*J101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1">
+      <c r="B102" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I102" s="5">
+        <v>50</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <f>H102*J102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1">
+      <c r="B106" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="4">
+        <v>49.95</v>
+      </c>
+      <c r="I106" s="5">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <f>H106*J106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" hidden="1">
+      <c r="B107" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="K107" s="4">
+        <f>H107*J107</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="1:12" hidden="1">
+      <c r="B108" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I108" s="5">
+        <v>1</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+      <c r="K108" s="4">
+        <f>H108*J108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="B111" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="J111" s="13">
+        <v>1</v>
+      </c>
+      <c r="K111" s="4">
+        <f t="shared" si="11"/>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="B112" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" t="s">
+        <v>255</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I112" t="s">
+        <v>50</v>
+      </c>
+      <c r="J112" s="5">
+        <v>2</v>
+      </c>
+      <c r="K112" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1">
+      <c r="B115" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="5">
+        <v>346</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H115" s="4">
+        <v>27.17</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <f>H115*J115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1">
+      <c r="B116" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="5">
+        <v>693</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H116" s="4">
+        <v>12.77</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <f>H116*J116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1">
+      <c r="B117" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="I117" s="5">
+        <v>1</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
+        <f>H117*J117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="B120" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I120" s="5">
+        <v>12</v>
+      </c>
+      <c r="J120" s="5">
+        <v>1</v>
+      </c>
+      <c r="K120" s="4">
+        <f>H120*J120</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I121" s="5">
+        <v>12</v>
+      </c>
+      <c r="J121" s="5">
+        <v>1</v>
+      </c>
+      <c r="K121" s="4">
+        <f>H121*J121</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1">
+      <c r="B122" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I122" s="5">
+        <v>12</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0</v>
+      </c>
+      <c r="K122" s="4">
+        <f>H122*J122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1">
+      <c r="B123" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" s="4">
+        <v>12</v>
+      </c>
+      <c r="I123" s="5">
+        <v>12</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0</v>
+      </c>
+      <c r="K123" s="4">
+        <f>H123*J123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="K126" s="4">
+        <f>SUM(K2:K125)</f>
+        <v>808.18000000000006</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133" t="s">
+        <v>259</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="795" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="D13" sqref="D1:D1048576"/>
       <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
@@ -3337,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M106"/>
   <sheetViews>
@@ -5300,7 +7890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N85"/>
   <sheetViews>
@@ -7486,7 +10076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>

--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -13,6 +13,9 @@
     <sheet name="order (2)" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'order (4)'!$A$2:$M$60</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -193,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="330">
   <si>
     <t>part Number</t>
   </si>
@@ -1153,14 +1156,45 @@
   </si>
   <si>
     <t>Heat-Shrink Tubing Assortments</t>
+  </si>
+  <si>
+    <t>AM-2964</t>
+  </si>
+  <si>
+    <t>Nev Rest 40 Motor</t>
+  </si>
+  <si>
+    <t>40:1 Motor</t>
+  </si>
+  <si>
+    <t>Gyro</t>
+  </si>
+  <si>
+    <t>HiTechnic</t>
+  </si>
+  <si>
+    <t>am-3211</t>
+  </si>
+  <si>
+    <t>Bonded Wire</t>
+  </si>
+  <si>
+    <t>18 Gauge 2 wire 20''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20'', 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> McMaster-Carr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1232,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1256,6 +1290,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,12 +1586,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="885" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="765" activePane="bottomLeft"/>
+      <selection activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1564,7 +1600,7 @@
     <col min="2" max="2" width="16" style="5" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="15" customWidth="1"/>
     <col min="6" max="6" width="6" style="5" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="4" customWidth="1"/>
@@ -1574,7 +1610,7 @@
     <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="2:13">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1620,7 @@
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1606,179 +1642,251 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
-        <v>283</v>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="4">
+        <v>25.52</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <f>H2*J2</f>
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="25.5">
+      <c r="B3" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>206</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
+        <v>276</v>
       </c>
       <c r="H3" s="4">
-        <v>17.95</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4">
         <f>H3*J3</f>
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>284</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>321</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" t="s">
+        <v>276</v>
       </c>
       <c r="H4" s="4">
-        <v>27.95</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4">
         <f>H4*J4</f>
-        <v>27.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>325</v>
+      </c>
+      <c r="C5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="H5" s="4">
-        <v>16.95</v>
+        <v>7</v>
       </c>
       <c r="I5" s="5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5" s="4">
         <f>H5*J5</f>
-        <v>16.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>102</v>
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="H6" s="4">
-        <v>11.95</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4">
         <f>H6*J6</f>
-        <v>35.849999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>287</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7"/>
       <c r="C7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4">
-        <f>H7*J7</f>
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f>H8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="16"/>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="4">
+        <v>27.12</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f>H9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>314</v>
       </c>
       <c r="H10" s="4">
-        <v>5.95</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="I10" s="5">
-        <v>2</v>
-      </c>
-      <c r="J10" s="5">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
       </c>
       <c r="K10" s="4">
         <f>H10*J10</f>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="5" t="s">
         <v>168</v>
       </c>
@@ -1805,215 +1913,377 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
+        <v>281</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" t="s">
+        <v>282</v>
       </c>
       <c r="H12" s="4">
-        <v>4.95</v>
+        <v>67.95</v>
       </c>
       <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
       </c>
       <c r="K12" s="4">
         <f>H12*J12</f>
-        <v>14.850000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>311</v>
+      </c>
+      <c r="G13" t="s">
+        <v>282</v>
       </c>
       <c r="H13" s="4">
-        <v>4.95</v>
+        <v>24.95</v>
       </c>
       <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" ref="K13" si="0">H13*J13</f>
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <f>H13*J13</f>
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="4">
+        <v>99.95</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f>H14*J14</f>
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f>H15*J15</f>
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="E16" s="16">
+        <f>416/25.4</f>
+        <v>16.377952755905511</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="4">
-        <v>13.95</v>
+        <v>17.95</v>
       </c>
       <c r="I16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <f>H16*J16</f>
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="E17" s="16">
+        <f>288/25.4</f>
+        <v>11.338582677165356</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="4">
-        <v>10.95</v>
+        <v>27.95</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
       </c>
       <c r="J17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <f>H17*J17</f>
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="16">
+        <f>160/25.4</f>
+        <v>6.2992125984251972</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f>H18*J18</f>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="16">
+        <f>96/25.4</f>
+        <v>3.7795275590551185</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <f>H19*J19</f>
+        <v>35.849999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="B20" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>230</v>
+        <v>100</v>
+      </c>
+      <c r="E20" s="16">
+        <f>32/25.4</f>
+        <v>1.2598425196850394</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="4">
-        <v>12.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
       </c>
       <c r="J20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4">
         <f>H20*J20</f>
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4">
+        <f>H21*J21</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4">
+        <f>H22*J22</f>
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="4">
-        <v>15.95</v>
+        <v>4.95</v>
       </c>
       <c r="I23" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="4">
         <f>H23*J23</f>
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="4">
-        <v>15.95</v>
+        <v>13.95</v>
       </c>
       <c r="I24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="4">
         <f>H24*J24</f>
-        <v>15.95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -2033,63 +2303,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" customFormat="1">
+    <row r="26" spans="1:13" customFormat="1">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="1">
-        <v>6.95</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" ref="K26" si="1">H26*J26</f>
-        <v>27.8</v>
-      </c>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
+        <v>300</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <f>H26*J26</f>
+        <v>21.9</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="4">
-        <v>3.95</v>
+        <v>12.95</v>
       </c>
       <c r="I27" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="4">
         <f>H27*J27</f>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1">
       <c r="B28" s="5" t="s">
         <v>186</v>
       </c>
@@ -2116,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:13" hidden="1">
       <c r="B29" s="5" t="s">
         <v>187</v>
       </c>
@@ -2143,12 +2416,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>302</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I30" s="5">
+        <v>6</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <f>H30*J30</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1">
+      <c r="B31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I31" s="5">
+        <v>3</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <f>H31*J31</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1">
       <c r="B32" t="s">
         <v>306</v>
       </c>
@@ -2165,14 +2487,14 @@
         <v>43</v>
       </c>
       <c r="J32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="4">
         <f>H32*J32</f>
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" t="s">
         <v>307</v>
       </c>
@@ -2182,7 +2504,7 @@
       <c r="D33" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="15">
         <v>32</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -2195,14 +2517,14 @@
         <v>2</v>
       </c>
       <c r="J33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33:K35" si="2">H33*J33</f>
-        <v>29.95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <f>H33*J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" hidden="1">
       <c r="B34" t="s">
         <v>308</v>
       </c>
@@ -2212,7 +2534,7 @@
       <c r="D34" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="15">
         <v>24</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -2225,14 +2547,14 @@
         <v>2</v>
       </c>
       <c r="J34" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="2"/>
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <f>H34*J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" hidden="1">
       <c r="B35" t="s">
         <v>305</v>
       </c>
@@ -2242,7 +2564,7 @@
       <c r="D35" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="15">
         <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -2255,19 +2577,72 @@
         <v>2</v>
       </c>
       <c r="J35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="2"/>
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <f>H35*J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <f>H36*J36</f>
+        <v>27.8</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2</v>
+      </c>
+      <c r="K37" s="4">
+        <f>H37*J37</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>288</v>
       </c>
@@ -2290,11 +2665,11 @@
         <v>1</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" ref="K38:K43" si="3">H38*J38</f>
+        <f>H38*J38</f>
         <v>27.95</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="2:13" hidden="1">
       <c r="B39" s="5" t="s">
         <v>178</v>
       </c>
@@ -2317,11 +2692,11 @@
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1">
+        <f>H39*J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" hidden="1">
       <c r="B40" s="5" t="s">
         <v>160</v>
       </c>
@@ -2344,11 +2719,11 @@
         <v>0</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <f>H40*J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>289</v>
       </c>
@@ -2371,11 +2746,11 @@
         <v>4</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="3"/>
+        <f>H41*J41</f>
         <v>27.8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="2:13" hidden="1">
       <c r="B42" s="5" t="s">
         <v>214</v>
       </c>
@@ -2395,11 +2770,11 @@
         <v>0</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" hidden="1">
+        <f>H42*J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" hidden="1">
       <c r="B43" s="5" t="s">
         <v>216</v>
       </c>
@@ -2422,16 +2797,65 @@
         <v>0</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" hidden="1">
+        <f>H43*J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="25.5">
+      <c r="B44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <f>H44*J44</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="4">
+        <v>89.95</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f>H45*J45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" hidden="1">
       <c r="B46" s="5" t="s">
         <v>198</v>
       </c>
@@ -2441,7 +2865,7 @@
       <c r="D46" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="15" t="s">
         <v>201</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -2457,11 +2881,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" ref="K46:K56" si="4">H46*J46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" hidden="1">
+        <f>H46*J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" hidden="1">
       <c r="B47" s="5" t="s">
         <v>177</v>
       </c>
@@ -2484,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="4"/>
+        <f>H47*J47</f>
         <v>0</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -2494,7 +2918,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="2:13" hidden="1">
       <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
@@ -2517,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="4"/>
+        <f>H48*J48</f>
         <v>0</v>
       </c>
     </row>
@@ -2541,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="4"/>
+        <f>H49*J49</f>
         <v>0</v>
       </c>
     </row>
@@ -2568,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="4"/>
+        <f>H50*J50</f>
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
@@ -2598,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="4"/>
+        <f>H51*J51</f>
         <v>0</v>
       </c>
     </row>
@@ -2616,11 +3040,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <f>H52*J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1">
       <c r="B53" t="s">
         <v>309</v>
       </c>
@@ -2637,11 +3061,11 @@
         <v>1</v>
       </c>
       <c r="J53" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="4"/>
-        <v>3.9</v>
+        <f>H53*J53</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" hidden="1">
@@ -2667,38 +3091,32 @@
         <v>0</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="25.5">
+        <f>H54*J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="B55" s="5" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="H55" s="4">
-        <v>5</v>
+        <v>79.95</v>
       </c>
       <c r="I55" s="5">
         <v>1</v>
       </c>
       <c r="J55" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f>H55*J55</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" hidden="1">
@@ -2724,13 +3142,62 @@
         <v>0</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>H56*J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I57" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4">
+        <f>H57*J57</f>
+        <v>1.9</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>235</v>
+      <c r="B58" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I58" s="5">
+        <v>12</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <f>H58*J58</f>
+        <v>3.95</v>
       </c>
     </row>
     <row r="59" spans="1:13" hidden="1">
@@ -2757,31 +3224,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="25.5">
+    <row r="60" spans="1:13">
       <c r="B60" s="5" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="4">
-        <v>9.9499999999999993</v>
+        <v>4.95</v>
       </c>
       <c r="I60" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
       </c>
       <c r="K60" s="4">
         <f>H60*J60</f>
-        <v>9.9499999999999993</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="25.5" hidden="1">
@@ -2807,291 +3274,70 @@
         <v>0</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" ref="K61" si="5">H61*J61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
+        <f>H61*J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="64" spans="1:13">
-      <c r="B64" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="4">
-        <v>89.95</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
-        <f>H64*J64</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="B65" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="4">
-        <v>79.95</v>
-      </c>
-      <c r="I65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="5">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <f>H65*J65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="C66" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4">
-        <f>H66*J66</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="B67" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G67" t="s">
-        <v>282</v>
-      </c>
-      <c r="H67" s="4">
-        <v>67.95</v>
-      </c>
-      <c r="I67" s="5">
-        <v>1</v>
-      </c>
-      <c r="J67" s="13">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <f>H67*J67</f>
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="B68" t="s">
-        <v>310</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G68" t="s">
-        <v>282</v>
-      </c>
-      <c r="H68" s="4">
-        <v>24.95</v>
-      </c>
-      <c r="I68" s="5">
-        <v>1</v>
-      </c>
-      <c r="J68" s="11">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <f>H68*J68</f>
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="B69"/>
-      <c r="G69"/>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" t="s">
-        <v>312</v>
-      </c>
-      <c r="B70"/>
-      <c r="G70"/>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="B71" t="s">
-        <v>313</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G71" t="s">
-        <v>314</v>
-      </c>
-      <c r="H71" s="4">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="I71" s="5">
-        <v>1</v>
-      </c>
-      <c r="J71" s="13">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <f>H71*J71</f>
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="B72"/>
-      <c r="G72"/>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1"/>
-    <row r="74" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="74" spans="1:3" ht="17.25" customHeight="1">
       <c r="A74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" hidden="1" customHeight="1">
       <c r="C75" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B76" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" t="s">
-        <v>249</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" t="s">
-        <v>257</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H76" s="4">
-        <v>25.52</v>
-      </c>
-      <c r="I76" s="5">
-        <v>1</v>
-      </c>
-      <c r="J76" s="5">
-        <v>1</v>
-      </c>
-      <c r="K76" s="4">
-        <f>H76*J76</f>
-        <v>25.52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B77" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E77" t="s">
-        <v>272</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H77" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="I77" s="5">
-        <v>1</v>
-      </c>
-      <c r="J77" s="13">
-        <v>1</v>
-      </c>
-      <c r="K77" s="4">
-        <f>H77*J77</f>
-        <v>15.5</v>
-      </c>
-      <c r="M77" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B78" t="s">
-        <v>318</v>
-      </c>
-      <c r="C78" t="s">
-        <v>319</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78"/>
-      <c r="G78" t="s">
-        <v>64</v>
-      </c>
-      <c r="H78" s="4">
-        <v>27.12</v>
-      </c>
-      <c r="I78" s="5">
-        <v>1</v>
-      </c>
-      <c r="J78" s="13">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4">
-        <f>H78*J78</f>
-        <v>0</v>
-      </c>
-      <c r="M78"/>
-    </row>
-    <row r="79" spans="1:13" ht="16.5" customHeight="1">
-      <c r="C79"/>
-      <c r="D79" s="3"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:13" ht="14.25" customHeight="1">
+    <row r="76" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="77" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" ht="12.75" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="B81" t="s">
         <v>290</v>
       </c>
@@ -3101,7 +3347,7 @@
       <c r="D81" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="15" t="s">
         <v>258</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -3134,7 +3380,7 @@
       <c r="D82" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="15" t="s">
         <v>252</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -3150,18 +3396,18 @@
         <v>0</v>
       </c>
       <c r="K82" s="4">
-        <f t="shared" ref="K82:K83" si="6">H82*J82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="27.75" customHeight="1">
+        <f>H82*J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="27.75" hidden="1" customHeight="1">
       <c r="B83" t="s">
         <v>253</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="16" t="s">
         <v>258</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -3177,126 +3423,65 @@
         <v>0</v>
       </c>
       <c r="K83" s="4">
-        <f t="shared" si="6"/>
+        <f>H83*J83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B84"/>
-      <c r="D84" s="3"/>
-      <c r="E84"/>
+      <c r="C84" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f>H84*J84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A85" t="s">
+      <c r="B85"/>
+      <c r="G85"/>
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A86" t="s">
+        <v>312</v>
+      </c>
+      <c r="B86"/>
+      <c r="G86"/>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" customHeight="1"/>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
         <v>263</v>
       </c>
-      <c r="B85"/>
-      <c r="D85" s="3"/>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B86" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86"/>
-      <c r="G86" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H86" s="4">
-        <v>99.95</v>
-      </c>
-      <c r="I86" s="5">
-        <v>1</v>
-      </c>
-      <c r="J86" s="5">
-        <v>1</v>
-      </c>
-      <c r="K86" s="4">
-        <f t="shared" ref="K86" si="7">H86*J86</f>
-        <v>99.95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B87" t="s">
-        <v>267</v>
-      </c>
-      <c r="C87" t="s">
-        <v>268</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87"/>
-      <c r="G87" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H87" s="4">
-        <v>17.95</v>
-      </c>
-      <c r="I87" s="5">
-        <v>1</v>
-      </c>
-      <c r="J87" s="5">
-        <v>1</v>
-      </c>
-      <c r="K87" s="4">
-        <f t="shared" ref="K87" si="8">H87*J87</f>
-        <v>17.95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="B90" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" t="s">
-        <v>279</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H90" s="4">
-        <v>20</v>
-      </c>
-      <c r="I90" s="5">
-        <v>1</v>
-      </c>
-      <c r="J90" s="5">
-        <v>2</v>
-      </c>
-      <c r="K90" s="4">
-        <f t="shared" ref="K90" si="9">H90*J90</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
       <c r="B91"/>
-      <c r="C91"/>
       <c r="D91" s="3"/>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" t="s">
-        <v>291</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92" s="3"/>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="E91" s="16"/>
+    </row>
+    <row r="93" spans="1:13" hidden="1">
       <c r="B93" t="s">
         <v>292</v>
       </c>
@@ -3316,17 +3501,23 @@
         <v>1</v>
       </c>
       <c r="J93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" ref="K93" si="10">H93*J93</f>
-        <v>17.91</v>
+        <f>H93*J93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="16"/>
     </row>
     <row r="96" spans="1:13" hidden="1">
       <c r="B96" s="5" t="s">
@@ -3335,7 +3526,7 @@
       <c r="D96" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -3351,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="4">
-        <f t="shared" ref="K96:K112" si="11">H96*J96</f>
+        <f>H96*J96</f>
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3553,7 @@
       <c r="D97" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="5" t="s">
@@ -3378,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="4">
-        <f t="shared" si="11"/>
+        <f>H97*J97</f>
         <v>0</v>
       </c>
     </row>
@@ -3389,7 +3580,7 @@
       <c r="D98" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -3405,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" si="11"/>
+        <f>H98*J98</f>
         <v>0</v>
       </c>
     </row>
@@ -3436,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12" ht="25.5" hidden="1">
       <c r="B100" s="5" t="s">
         <v>185</v>
       </c>
@@ -3517,9 +3708,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>291</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="16"/>
+    </row>
     <row r="105" spans="1:12">
       <c r="A105" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:12" hidden="1">
@@ -3532,7 +3732,7 @@
       <c r="D106" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="15" t="s">
         <v>242</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -3607,12 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" hidden="1">
       <c r="B111" s="5" t="s">
         <v>51</v>
       </c>
@@ -3626,43 +3821,21 @@
         <v>16.95</v>
       </c>
       <c r="J111" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="4">
-        <f t="shared" si="11"/>
-        <v>16.95</v>
+        <f>H111*J111</f>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="B112" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E112" t="s">
-        <v>255</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="I112" t="s">
-        <v>50</v>
-      </c>
-      <c r="J112" s="5">
-        <v>2</v>
-      </c>
-      <c r="K112" s="4">
-        <f t="shared" si="11"/>
-        <v>1.9</v>
+      <c r="A112" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1">
@@ -3672,7 +3845,7 @@
       <c r="D115" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="15">
         <v>346</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -3699,7 +3872,7 @@
       <c r="D116" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="15">
         <v>693</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -3726,7 +3899,7 @@
       <c r="D117" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="15" t="s">
         <v>71</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -3746,154 +3919,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="119" spans="1:11">
+      <c r="A119" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1">
       <c r="B120" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H120" s="4">
-        <v>3.95</v>
+        <v>13.95</v>
       </c>
       <c r="I120" s="5">
         <v>12</v>
       </c>
       <c r="J120" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="4">
         <f>H120*J120</f>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1">
       <c r="B121" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="4">
-        <v>4.95</v>
+        <v>12</v>
       </c>
       <c r="I121" s="5">
         <v>12</v>
       </c>
       <c r="J121" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="4">
         <f>H121*J121</f>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1">
-      <c r="B122" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="4">
-        <v>13.95</v>
-      </c>
-      <c r="I122" s="5">
-        <v>12</v>
-      </c>
-      <c r="J122" s="5">
-        <v>0</v>
-      </c>
-      <c r="K122" s="4">
-        <f>H122*J122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1">
-      <c r="B123" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" s="4">
-        <v>12</v>
-      </c>
-      <c r="I123" s="5">
-        <v>12</v>
-      </c>
-      <c r="J123" s="5">
-        <v>0</v>
-      </c>
-      <c r="K123" s="4">
-        <f>H123*J123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="K126" s="4">
-        <f>SUM(K2:K125)</f>
-        <v>808.18000000000006</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="K124" s="4">
+        <f>SUM(K2:K123)</f>
+        <v>721.32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="C127" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="C128" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="3:4">
       <c r="C129" s="14" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="3:4">
-      <c r="C130" t="s">
+      <c r="C130" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="14" t="s">
-        <v>273</v>
+      <c r="D131" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="3:4">
-      <c r="C132" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="C133" t="s">
-        <v>259</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="12" t="s">
+      <c r="C132" s="12" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M60">
+    <sortCondition ref="G2:G60"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>

--- a/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
+++ b/Phi Alpha/Hardware Master Equipment List/Master_Equipment_List_PhiAlpha452.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="order (4)" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="order" sheetId="2" r:id="rId3"/>
     <sheet name="order (2)" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="20151101" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'order (4)'!$A$2:$M$60</definedName>
@@ -195,8 +196,43 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike McMillan</author>
+  </authors>
+  <commentList>
+    <comment ref="J57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mike McMillan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAY NOT NEED FOR NEW ELECTIONICS
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="370">
   <si>
     <t>part Number</t>
   </si>
@@ -1186,6 +1222,126 @@
   </si>
   <si>
     <t xml:space="preserve"> McMaster-Carr</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>SKU:45-1122</t>
+  </si>
+  <si>
+    <t>OTG USB Cable</t>
+  </si>
+  <si>
+    <t>Power distribution to Android phone</t>
+  </si>
+  <si>
+    <t>Modern Robotics</t>
+  </si>
+  <si>
+    <t>SKU: 50-1003</t>
+  </si>
+  <si>
+    <t>USB Mini Cable Kit</t>
+  </si>
+  <si>
+    <t>Core Modules to the USB Hub</t>
+  </si>
+  <si>
+    <t>out of Stock</t>
+  </si>
+  <si>
+    <t>SKU: 50-1104</t>
+  </si>
+  <si>
+    <t>Phone Mount Kit</t>
+  </si>
+  <si>
+    <t>mounts phone to robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Robotics </t>
+  </si>
+  <si>
+    <t>Treads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitsco (Tetrix) </t>
+  </si>
+  <si>
+    <t>W39250</t>
+  </si>
+  <si>
+    <t>Tetrix Max Tank Tread Accessory Pack</t>
+  </si>
+  <si>
+    <t>W39174</t>
+  </si>
+  <si>
+    <t>W39057</t>
+  </si>
+  <si>
+    <t>W39129</t>
+  </si>
+  <si>
+    <t>Tetrix</t>
+  </si>
+  <si>
+    <t>On/Off Switch</t>
+  </si>
+  <si>
+    <t>W39176</t>
+  </si>
+  <si>
+    <t>Switch Mounting Bracket</t>
+  </si>
+  <si>
+    <t>USB-USB mini Connector</t>
+  </si>
+  <si>
+    <t>SKU: 45-2018</t>
+  </si>
+  <si>
+    <t>SKU: 45-2005</t>
+  </si>
+  <si>
+    <t>Integrating Gyro</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>W39060</t>
+  </si>
+  <si>
+    <t>W39280</t>
+  </si>
+  <si>
+    <t>Tetrix Max Adjustable Servo Brackets</t>
+  </si>
+  <si>
+    <t>W39090</t>
+  </si>
+  <si>
+    <t>Cable Matters: Micro-USB 2.0 On-The-Go Adapter 6 inch</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Tetrix Max Sprocket and Chain Pack</t>
+  </si>
+  <si>
+    <t>Look into smaller gauge - look for terminal strips - check ftc Rules</t>
+  </si>
+  <si>
+    <t>Learn to use existing gyro first</t>
+  </si>
+  <si>
+    <t>Do we need this?</t>
+  </si>
+  <si>
+    <t>Re-think this - Treads have'nt been working -get spare track - skp paddles - do we want to use an Idler for a spool?</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1409,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1266,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1292,6 +1454,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,12 +1777,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="765" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="765" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="M3" sqref="M3"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD60"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1825,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f>H8*J8</f>
+        <f t="shared" ref="K8:K39" si="0">H8*J8</f>
         <v>0</v>
       </c>
       <c r="M8" t="s">
@@ -1854,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f>H9*J9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9"/>
@@ -1879,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f>H10*J10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" t="s">
@@ -1909,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f>H11*J11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1933,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f>H12*J12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" t="s">
@@ -1960,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="4">
-        <f>H13*J13</f>
+        <f t="shared" si="0"/>
         <v>24.95</v>
       </c>
     </row>
@@ -1986,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4">
-        <f>H14*J14</f>
+        <f t="shared" si="0"/>
         <v>99.95</v>
       </c>
     </row>
@@ -2012,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4">
-        <f>H15*J15</f>
+        <f t="shared" si="0"/>
         <v>17.95</v>
       </c>
     </row>
@@ -2043,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <f>H16*J16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2074,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4">
-        <f>H17*J17</f>
+        <f t="shared" si="0"/>
         <v>27.95</v>
       </c>
     </row>
@@ -2105,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="4">
-        <f>H18*J18</f>
+        <f t="shared" si="0"/>
         <v>16.95</v>
       </c>
     </row>
@@ -2136,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="4">
-        <f>H19*J19</f>
+        <f t="shared" si="0"/>
         <v>35.849999999999994</v>
       </c>
     </row>
@@ -2167,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="4">
-        <f>H20*J20</f>
+        <f t="shared" si="0"/>
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -2194,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="4">
-        <f>H21*J21</f>
+        <f t="shared" si="0"/>
         <v>23.8</v>
       </c>
     </row>
@@ -2218,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="4">
-        <f>H22*J22</f>
+        <f t="shared" si="0"/>
         <v>14.850000000000001</v>
       </c>
     </row>
@@ -2245,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="4">
-        <f>H23*J23</f>
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
     </row>
@@ -2272,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="4">
-        <f>H24*J24</f>
+        <f t="shared" si="0"/>
         <v>27.9</v>
       </c>
     </row>
@@ -2299,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f>H25*J25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2329,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="K26" s="4">
-        <f>H26*J26</f>
+        <f t="shared" si="0"/>
         <v>21.9</v>
       </c>
       <c r="L26" s="5"/>
@@ -2358,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="4">
-        <f>H27*J27</f>
+        <f t="shared" si="0"/>
         <v>12.95</v>
       </c>
     </row>
@@ -2385,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f>H28*J28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <f>H29*J29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2439,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="4">
-        <f>H30*J30</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
     </row>
@@ -2466,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="4">
-        <f>H31*J31</f>
+        <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
     </row>
@@ -2490,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4">
-        <f>H32*J32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f>H33*J33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2550,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f>H34*J34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2580,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f>H35*J35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2609,7 +2800,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="1">
-        <f>H36*J36</f>
+        <f t="shared" si="0"/>
         <v>27.8</v>
       </c>
       <c r="L36" s="9"/>
@@ -2638,7 +2829,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="4">
-        <f>H37*J37</f>
+        <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
     </row>
@@ -2665,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="4">
-        <f>H38*J38</f>
+        <f t="shared" si="0"/>
         <v>27.95</v>
       </c>
     </row>
@@ -2692,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f>H39*J39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4">
-        <f>H40*J40</f>
+        <f t="shared" ref="K40:K61" si="1">H40*J40</f>
         <v>0</v>
       </c>
     </row>
@@ -2746,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="K41" s="4">
-        <f>H41*J41</f>
+        <f t="shared" si="1"/>
         <v>27.8</v>
       </c>
     </row>
@@ -2770,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4">
-        <f>H42*J42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4">
-        <f>H43*J43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2824,11 +3015,11 @@
         <v>1</v>
       </c>
       <c r="K44" s="4">
-        <f>H44*J44</f>
+        <f t="shared" si="1"/>
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" ht="13.5" customHeight="1">
       <c r="B45" s="5" t="s">
         <v>154</v>
       </c>
@@ -2848,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4">
-        <f>H45*J45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M45" s="5" t="s">
@@ -2881,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4">
-        <f>H46*J46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2908,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4">
-        <f>H47*J47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L47" s="5" t="s">
@@ -2941,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="4">
-        <f>H48*J48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <f>H49*J49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2992,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="4">
-        <f>H50*J50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
@@ -3022,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <f>H51*J51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3040,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <f>H52*J52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="4">
-        <f>H53*J53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3091,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="4">
-        <f>H54*J54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3115,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="4">
-        <f>H55*J55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3142,115 +3333,12 @@
         <v>0</v>
       </c>
       <c r="K56" s="4">
-        <f>H56*J56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="B57" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="I57" t="s">
-        <v>50</v>
-      </c>
-      <c r="J57" s="5">
-        <v>2</v>
-      </c>
-      <c r="K57" s="4">
-        <f>H57*J57</f>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B58" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="4">
-        <v>3.95</v>
-      </c>
-      <c r="I58" s="5">
-        <v>12</v>
-      </c>
-      <c r="J58" s="5">
-        <v>1</v>
-      </c>
-      <c r="K58" s="4">
-        <f>H58*J58</f>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" hidden="1">
-      <c r="B59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="4">
-        <v>24.95</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <f>H59*J59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="B60" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="4">
-        <v>4.95</v>
-      </c>
-      <c r="I60" s="5">
-        <v>12</v>
-      </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="4">
-        <f>H60*J60</f>
-        <v>4.95</v>
-      </c>
-    </row>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:13" hidden="1"/>
     <row r="61" spans="1:13" ht="25.5" hidden="1">
       <c r="B61" s="5" t="s">
         <v>28</v>
@@ -3274,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="4">
-        <f>H61*J61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3326,244 +3414,183 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="80" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="81" spans="1:13" ht="16.5" customHeight="1"/>
+    <row r="82" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A82" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" customHeight="1"/>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A80" s="5" t="s">
+    <row r="83" spans="1:13" ht="16.5" customHeight="1"/>
+    <row r="84" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A84" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="12.75" hidden="1" customHeight="1">
-      <c r="B81" t="s">
+    <row r="85" spans="1:13" ht="12.75" customHeight="1">
+      <c r="B85" t="s">
         <v>290</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E85" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="G85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="4">
         <v>19.95</v>
       </c>
-      <c r="I81" s="5">
-        <v>1</v>
-      </c>
-      <c r="J81" s="13">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4">
-        <f>H81*J81</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="5" t="s">
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+      <c r="J85" s="13">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <f>H85*J85</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1">
-      <c r="B82" s="5" t="s">
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B86" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E86" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="4">
+      <c r="G86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="4">
         <v>29.95</v>
       </c>
-      <c r="I82" s="5">
-        <v>2</v>
-      </c>
-      <c r="J82" s="5">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4">
-        <f>H82*J82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="27.75" hidden="1" customHeight="1">
-      <c r="B83" t="s">
+      <c r="I86" s="5">
+        <v>2</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f>H86*J86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="27.75" customHeight="1">
+      <c r="B87" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="4">
+      <c r="G87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="4">
         <v>29.95</v>
       </c>
-      <c r="I83" s="5">
-        <v>2</v>
-      </c>
-      <c r="J83" s="13">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <f>H83*J83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.5" customHeight="1">
-      <c r="C84" s="5" t="s">
+      <c r="I87" s="5">
+        <v>2</v>
+      </c>
+      <c r="J87" s="13">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <f>H87*J87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" customHeight="1">
+      <c r="C88" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J84" s="5">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4">
-        <f>H84*J84</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="5" t="s">
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f>H88*J88</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B85"/>
-      <c r="G85"/>
-      <c r="J85" s="11"/>
-    </row>
-    <row r="86" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A86" t="s">
+    <row r="89" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B89"/>
+      <c r="G89"/>
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A90" t="s">
         <v>312</v>
       </c>
-      <c r="B86"/>
-      <c r="G86"/>
-      <c r="J86" s="11"/>
-    </row>
-    <row r="87" spans="1:13" ht="16.5" customHeight="1"/>
-    <row r="88" spans="1:13">
-      <c r="A88" t="s">
+      <c r="B90"/>
+      <c r="G90"/>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" customHeight="1"/>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="5" t="s">
+    <row r="93" spans="1:13">
+      <c r="A93" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C89"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="B90"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" t="s">
+      <c r="C93"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="B94"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="16"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
         <v>263</v>
       </c>
-      <c r="B91"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="16"/>
-    </row>
-    <row r="93" spans="1:13" hidden="1">
-      <c r="B93" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" t="s">
-        <v>293</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H93" s="4">
-        <v>17.91</v>
-      </c>
-      <c r="I93" s="5">
-        <v>1</v>
-      </c>
-      <c r="J93" s="5">
-        <v>0</v>
-      </c>
-      <c r="K93" s="4">
-        <f>H93*J93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
       <c r="B95"/>
-      <c r="C95"/>
       <c r="D95" s="3"/>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="1:13" hidden="1">
-      <c r="B96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H96" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="I96" s="5">
-        <v>100</v>
-      </c>
-      <c r="J96" s="5">
-        <v>0</v>
-      </c>
-      <c r="K96" s="4">
-        <f>H96*J96</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="97" spans="1:12" hidden="1">
-      <c r="B97" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>21</v>
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="H97" s="4">
-        <v>9.9499999999999993</v>
+        <v>17.91</v>
       </c>
       <c r="I97" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J97" s="5">
         <v>0</v>
@@ -3573,72 +3600,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1">
-      <c r="B98" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="4">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I98" s="5">
-        <v>50</v>
-      </c>
-      <c r="J98" s="5">
-        <v>0</v>
-      </c>
-      <c r="K98" s="4">
-        <f>H98*J98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1">
-      <c r="B99" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="4">
-        <v>2.95</v>
-      </c>
-      <c r="I99" s="5">
-        <v>100</v>
-      </c>
-      <c r="J99" s="5">
-        <v>0</v>
-      </c>
-      <c r="K99" s="4">
-        <f>H99*J99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="25.5" hidden="1">
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="16"/>
+    </row>
+    <row r="100" spans="1:12" hidden="1">
       <c r="B100" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>133</v>
+        <v>16</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H100" s="4">
         <v>9.9499999999999993</v>
@@ -3650,19 +3634,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="4">
-        <f>H100*J100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="17.25" hidden="1" customHeight="1">
+        <f t="shared" ref="K100:K106" si="2">H100*J100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1">
       <c r="B101" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>135</v>
+        <v>20</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>22</v>
@@ -3677,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="K101" s="4">
-        <f>H101*J101</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:12" hidden="1">
       <c r="B102" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>148</v>
+        <v>26</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>22</v>
@@ -3704,160 +3688,231 @@
         <v>0</v>
       </c>
       <c r="K102" s="4">
-        <f>H102*J102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" t="s">
-        <v>291</v>
-      </c>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="16"/>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="5" t="s">
-        <v>234</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1">
+      <c r="B103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I103" s="5">
+        <v>100</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+      <c r="K103" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="25.5" hidden="1">
+      <c r="B104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I104" s="5">
+        <v>100</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17.25" hidden="1" customHeight="1">
+      <c r="B105" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I105" s="5">
+        <v>100</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12" hidden="1">
       <c r="B106" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I106" s="5">
+        <v>50</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" t="s">
+        <v>291</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1">
+      <c r="B110" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E110" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H106" s="4">
+      <c r="G110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="4">
         <v>49.95</v>
       </c>
-      <c r="I106" s="5">
-        <v>1</v>
-      </c>
-      <c r="J106" s="5">
-        <v>0</v>
-      </c>
-      <c r="K106" s="4">
-        <f>H106*J106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" hidden="1">
-      <c r="B107" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="4">
-        <v>5.95</v>
-      </c>
-      <c r="I107" s="5">
-        <v>1</v>
-      </c>
-      <c r="J107" s="5">
-        <v>0</v>
-      </c>
-      <c r="K107" s="4">
-        <f>H107*J107</f>
-        <v>0</v>
-      </c>
-      <c r="L107" s="11"/>
-    </row>
-    <row r="108" spans="1:12" hidden="1">
-      <c r="B108" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="4">
-        <v>24.95</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1</v>
-      </c>
-      <c r="J108" s="5">
-        <v>0</v>
-      </c>
-      <c r="K108" s="4">
-        <f>H108*J108</f>
+      <c r="I110" s="5">
+        <v>1</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
+        <f>H110*J110</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:12" hidden="1">
       <c r="B111" s="5" t="s">
-        <v>51</v>
+        <v>159</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H111" s="4">
-        <v>16.95</v>
-      </c>
-      <c r="J111" s="13">
+        <v>5.95</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1</v>
+      </c>
+      <c r="J111" s="5">
         <v>0</v>
       </c>
       <c r="K111" s="4">
         <f>H111*J111</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="5" t="s">
-        <v>238</v>
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="1:12" hidden="1">
+      <c r="B112" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I112" s="5">
+        <v>1</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4">
+        <f>H112*J112</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1">
       <c r="B115" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E115" s="15">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H115" s="4">
-        <v>27.17</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J115" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="J115" s="13">
         <v>0</v>
       </c>
       <c r="K115" s="4">
@@ -3865,83 +3920,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1">
-      <c r="B116" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E116" s="15">
-        <v>693</v>
-      </c>
-      <c r="G116" s="5" t="s">
+    <row r="116" spans="1:11">
+      <c r="A116" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1">
+      <c r="B119" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="15">
+        <v>346</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H116" s="4">
-        <v>12.77</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J116" s="5">
-        <v>0</v>
-      </c>
-      <c r="K116" s="4">
-        <f>H116*J116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1">
-      <c r="B117" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H117" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="I117" s="5">
-        <v>1</v>
-      </c>
-      <c r="J117" s="5">
-        <v>0</v>
-      </c>
-      <c r="K117" s="4">
-        <f>H117*J117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="5" t="s">
-        <v>239</v>
+      <c r="H119" s="4">
+        <v>27.17</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
+        <f>H119*J119</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1">
       <c r="B120" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>127</v>
+        <v>67</v>
+      </c>
+      <c r="E120" s="15">
+        <v>693</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H120" s="4">
-        <v>13.95</v>
-      </c>
-      <c r="I120" s="5">
-        <v>12</v>
+        <v>12.77</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="J120" s="5">
         <v>0</v>
@@ -3953,22 +3986,22 @@
     </row>
     <row r="121" spans="1:11" hidden="1">
       <c r="B121" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>149</v>
+        <v>69</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H121" s="4">
-        <v>12</v>
+        <v>1.52</v>
       </c>
       <c r="I121" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J121" s="5">
         <v>0</v>
@@ -3978,42 +4011,205 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:11">
+      <c r="B122" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I122" t="s">
+        <v>50</v>
+      </c>
+      <c r="J122" s="5">
+        <v>2</v>
+      </c>
+      <c r="K122" s="4">
+        <f>H122*J122</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="D123" s="3"/>
+      <c r="E123" s="16"/>
+      <c r="I123"/>
+    </row>
     <row r="124" spans="1:11">
-      <c r="K124" s="4">
-        <f>SUM(K2:K123)</f>
-        <v>721.32</v>
+      <c r="A124" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1">
+      <c r="B125" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I125" s="5">
+        <v>12</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+      <c r="K125" s="4">
+        <f>H125*J125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1">
+      <c r="B126" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="4">
+        <v>12</v>
+      </c>
+      <c r="I126" s="5">
+        <v>12</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="K126" s="4">
+        <f>H126*J126</f>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="C127" s="14" t="s">
+      <c r="B127" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I127" s="5">
+        <v>12</v>
+      </c>
+      <c r="J127" s="5">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4">
+        <f>H127*J127</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I128" s="5">
+        <v>1</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+      <c r="K128" s="4">
+        <f>H128*J128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I129" s="5">
+        <v>12</v>
+      </c>
+      <c r="J129" s="5">
+        <v>1</v>
+      </c>
+      <c r="K129" s="4">
+        <f>H129*J129</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="C132" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="C128" t="s">
+    <row r="133" spans="2:11">
+      <c r="C133" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="14" t="s">
+    <row r="134" spans="2:11">
+      <c r="C134" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="14" t="s">
+    <row r="135" spans="2:11">
+      <c r="C135" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
-      <c r="C131" t="s">
+    <row r="136" spans="2:11">
+      <c r="C136" t="s">
         <v>259</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="12" t="s">
+    <row r="137" spans="2:11">
+      <c r="C137" s="12" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4036,9 +4232,9 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="795" topLeftCell="A62" activePane="bottomLeft"/>
-      <selection activeCell="D13" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="795" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="C1:K10"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6059,7 +6255,7 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="660" topLeftCell="A50" activePane="bottomLeft"/>
+      <pane ySplit="660" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
@@ -8022,9 +8218,9 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="780" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="780" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="J87" sqref="J87:J88"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11824,4 +12020,2412 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="870" topLeftCell="A109" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="J90" sqref="J90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3*J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4*J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>H5*J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>H6*J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7*J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f>H10*J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>H11*J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f>H12*J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13" si="0">H13*J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>H16*J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>H17*J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="13" customFormat="1">
+      <c r="B20" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="17">
+        <v>12.95</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
+        <f>H20*J20</f>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>H23*J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="23">
+        <v>15.95</v>
+      </c>
+      <c r="I24" s="21">
+        <v>3</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="23">
+        <f>H24*J24</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f>H25*J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="29">
+        <v>6.95</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2</v>
+      </c>
+      <c r="J26" s="12">
+        <v>4</v>
+      </c>
+      <c r="K26" s="29">
+        <f t="shared" ref="K26" si="1">H26*J26</f>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="13" customFormat="1">
+      <c r="B27" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="17">
+        <v>3.95</v>
+      </c>
+      <c r="I27" s="13">
+        <v>6</v>
+      </c>
+      <c r="J27" s="13">
+        <v>2</v>
+      </c>
+      <c r="K27" s="17">
+        <f>H27*J27</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="21" customFormat="1">
+      <c r="B28" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1.95</v>
+      </c>
+      <c r="I28" s="21">
+        <v>12</v>
+      </c>
+      <c r="J28" s="21">
+        <v>2</v>
+      </c>
+      <c r="K28" s="23">
+        <f>H28*J28</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I29" s="5">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f>H29*J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B32" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="G32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="23">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="I32" s="21">
+        <v>1</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1</v>
+      </c>
+      <c r="K32" s="23">
+        <f>H32*J32</f>
+        <v>69.959999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <f>H33*J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="5">
+        <v>32</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:K36" si="2">H34*J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="5">
+        <v>24</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="5">
+        <v>16</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="23">
+        <v>27.95</v>
+      </c>
+      <c r="I39" s="21">
+        <v>1</v>
+      </c>
+      <c r="J39" s="21">
+        <v>4</v>
+      </c>
+      <c r="K39" s="23">
+        <f t="shared" ref="K39:K44" si="3">H39*J39</f>
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="21" customFormat="1">
+      <c r="B42" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="23">
+        <v>6.95</v>
+      </c>
+      <c r="I42" s="21">
+        <v>2</v>
+      </c>
+      <c r="J42" s="21">
+        <v>3</v>
+      </c>
+      <c r="K42" s="23">
+        <f t="shared" si="3"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="4">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="B47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="4">
+        <v>25</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" ref="K47:K57" si="4">H47*J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I49" s="5">
+        <v>2</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12" customHeight="1">
+      <c r="B51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="4">
+        <v>15.95</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="C53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="25.5">
+      <c r="B56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="B60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <f>H60*J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="21" customFormat="1" ht="25.5">
+      <c r="B61" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="23">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I61" s="21">
+        <v>2</v>
+      </c>
+      <c r="J61" s="21">
+        <v>1</v>
+      </c>
+      <c r="K61" s="23">
+        <f>H61*J61</f>
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="25.5">
+      <c r="B62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <f>H62*J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="21" customFormat="1">
+      <c r="B63" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="G63" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="23">
+        <v>10.95</v>
+      </c>
+      <c r="I63" s="21">
+        <v>1</v>
+      </c>
+      <c r="J63" s="21">
+        <v>1</v>
+      </c>
+      <c r="K63" s="23">
+        <f>H63*J63</f>
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="4">
+        <v>89.95</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <f>H70*J70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="C71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f>H71*J71</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="B72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="4">
+        <v>79.95</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f>H72*J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" s="18" customFormat="1" ht="25.5">
+      <c r="B75" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H75" s="20">
+        <v>6.95</v>
+      </c>
+      <c r="I75" s="18">
+        <v>1</v>
+      </c>
+      <c r="J75" s="18">
+        <v>2</v>
+      </c>
+      <c r="K75" s="20">
+        <f t="shared" ref="K75:K77" si="5">H75*J75</f>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="13" customFormat="1">
+      <c r="B76" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H76" s="17">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I76" s="13">
+        <v>2</v>
+      </c>
+      <c r="J76" s="13">
+        <v>0</v>
+      </c>
+      <c r="K76" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C77" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="G77" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="H77" s="23">
+        <v>6.99</v>
+      </c>
+      <c r="I77" s="21">
+        <v>2</v>
+      </c>
+      <c r="J77" s="21">
+        <v>1</v>
+      </c>
+      <c r="K77" s="23">
+        <f t="shared" si="5"/>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="K78" s="28"/>
+    </row>
+    <row r="79" spans="1:13" ht="14.25" customHeight="1">
+      <c r="C79" t="s">
+        <v>246</v>
+      </c>
+      <c r="K79" s="28"/>
+    </row>
+    <row r="80" spans="1:13" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B80" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H80" s="17">
+        <v>25.52</v>
+      </c>
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="17">
+        <f>H80*J80</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="18" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="14"/>
+      <c r="H81" s="20"/>
+      <c r="K81" s="20"/>
+    </row>
+    <row r="82" spans="1:13" ht="16.5" customHeight="1">
+      <c r="C82"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" ht="12.75" customHeight="1">
+      <c r="B84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f>H84*J84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I85" s="5">
+        <v>2</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" ref="K85:K90" si="6">H85*J85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" t="s">
+        <v>258</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="I86" s="5">
+        <v>2</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="21" customFormat="1">
+      <c r="A88" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="H88" s="23"/>
+      <c r="K88" s="23"/>
+    </row>
+    <row r="89" spans="1:13" s="13" customFormat="1">
+      <c r="A89" s="12"/>
+      <c r="B89" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H89" s="17">
+        <v>99.95</v>
+      </c>
+      <c r="I89" s="13">
+        <v>1</v>
+      </c>
+      <c r="J89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="13" customFormat="1" ht="25.5">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H90" s="17">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="I90" s="13">
+        <v>1</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
+      <c r="K90" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="B94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I94" s="5">
+        <v>100</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" ref="K94:K117" si="7">H94*J94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="B95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I95" s="5">
+        <v>100</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="B96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I96" s="5">
+        <v>50</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="B97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="I97" s="5">
+        <v>100</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f>H97*J97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="B98" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I98" s="5">
+        <v>100</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <f>H98*J98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="17.25" customHeight="1">
+      <c r="B99" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I99" s="5">
+        <v>100</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <f>H99*J99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="B100" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I100" s="5">
+        <v>50</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <f>H100*J100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="21" customFormat="1">
+      <c r="B104" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="23">
+        <v>49.95</v>
+      </c>
+      <c r="I104" s="21">
+        <v>1</v>
+      </c>
+      <c r="J104" s="21">
+        <v>1</v>
+      </c>
+      <c r="K104" s="23">
+        <f>H104*J104</f>
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="B105" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <f>H105*J105</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="B106" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="I106" s="5">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <f>H106*J106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="13" customFormat="1">
+      <c r="B107" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="17">
+        <v>6.95</v>
+      </c>
+      <c r="I107" s="13">
+        <v>1</v>
+      </c>
+      <c r="J107" s="13">
+        <v>0</v>
+      </c>
+      <c r="K107" s="17">
+        <f t="shared" ref="K107:K108" si="8">H107*J107</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="13" customFormat="1">
+      <c r="B108" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="I108" s="13">
+        <v>1</v>
+      </c>
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" s="13" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A111" s="12"/>
+      <c r="B111" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="27"/>
+      <c r="G111" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H111" s="17">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="I111" s="13">
+        <v>1</v>
+      </c>
+      <c r="J111" s="13">
+        <v>0</v>
+      </c>
+      <c r="K111" s="17">
+        <f t="shared" ref="K111:K112" si="9">H111*J111</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="13" customFormat="1">
+      <c r="A112" s="12"/>
+      <c r="B112" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D112" s="27"/>
+      <c r="G112" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H112" s="17">
+        <v>32.96</v>
+      </c>
+      <c r="I112" s="13">
+        <v>1</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0</v>
+      </c>
+      <c r="K112" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="B116" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="4">
+        <v>16.95</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="21" customFormat="1">
+      <c r="B117" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J117" s="21">
+        <v>2</v>
+      </c>
+      <c r="K117" s="23">
+        <f t="shared" si="7"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="18" customFormat="1">
+      <c r="B120" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="18">
+        <v>346</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H120" s="20">
+        <v>27.17</v>
+      </c>
+      <c r="I120" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J120" s="18">
+        <v>0</v>
+      </c>
+      <c r="K120" s="20">
+        <f>H120*J120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="B121" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E121" s="5">
+        <v>693</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H121" s="4">
+        <v>12.77</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0</v>
+      </c>
+      <c r="K121" s="4">
+        <f>H121*J121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="18" customFormat="1">
+      <c r="B122" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" s="20">
+        <v>1.52</v>
+      </c>
+      <c r="I122" s="18">
+        <v>1</v>
+      </c>
+      <c r="J122" s="18">
+        <v>12</v>
+      </c>
+      <c r="K122" s="20">
+        <f>H122*J122</f>
+        <v>18.240000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="B125" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I125" s="5">
+        <v>12</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+      <c r="K125" s="4">
+        <f>H125*J125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="B126" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I126" s="5">
+        <v>12</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="K126" s="4">
+        <f>H126*J126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="B127" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="I127" s="5">
+        <v>12</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0</v>
+      </c>
+      <c r="K127" s="4">
+        <f>H127*J127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="B128" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="4">
+        <v>12</v>
+      </c>
+      <c r="I128" s="5">
+        <v>12</v>
+      </c>
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+      <c r="K128" s="4">
+        <f t="shared" ref="K128:K130" si="10">H128*J128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="K129" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" s="21" customFormat="1">
+      <c r="B130" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H130" s="23">
+        <v>6.96</v>
+      </c>
+      <c r="I130" s="21">
+        <v>1</v>
+      </c>
+      <c r="J130" s="21">
+        <v>1</v>
+      </c>
+      <c r="K130" s="23">
+        <f t="shared" si="10"/>
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="D131" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="K139" s="4">
+        <f>SUM(K2:K138)</f>
+        <v>389.94999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>